--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABFD0E1-C364-5C4C-97C1-01AA05375B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A060DF9A-C07F-084F-A429-CA7715FED91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="5160" windowWidth="37620" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="150">
   <si>
     <t>DOI</t>
   </si>
@@ -395,13 +395,88 @@
   </si>
   <si>
     <t>MTG fluorescence intensity per cell (x1e6)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell viability</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t>RPKM</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Bioluminescence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +490,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -424,7 +507,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -458,17 +541,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -772,15 +870,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E130"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="237" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="109" workbookViewId="0">
+      <selection activeCell="H124" sqref="H124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -796,8 +897,23 @@
       <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -813,8 +929,23 @@
       <c r="E2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -830,8 +961,23 @@
       <c r="E3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -847,8 +993,23 @@
       <c r="E4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" t="s">
+        <v>131</v>
+      </c>
+      <c r="J4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -864,8 +1025,23 @@
       <c r="E5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>131</v>
+      </c>
+      <c r="I5" t="s">
+        <v>131</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -881,8 +1057,23 @@
       <c r="E6" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>131</v>
+      </c>
+      <c r="J6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -898,8 +1089,23 @@
       <c r="E7" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -915,8 +1121,23 @@
       <c r="E8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" t="s">
+        <v>131</v>
+      </c>
+      <c r="I8" t="s">
+        <v>131</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -932,8 +1153,23 @@
       <c r="E9" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I9" t="s">
+        <v>131</v>
+      </c>
+      <c r="J9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -949,8 +1185,23 @@
       <c r="E10" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+      <c r="I10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -966,8 +1217,23 @@
       <c r="E11" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>131</v>
+      </c>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -983,8 +1249,23 @@
       <c r="E12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H12" t="s">
+        <v>131</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1000,8 +1281,23 @@
       <c r="E13" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1017,8 +1313,23 @@
       <c r="E14" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" t="s">
+        <v>131</v>
+      </c>
+      <c r="H14" t="s">
+        <v>131</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1034,8 +1345,23 @@
       <c r="E15" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" t="s">
+        <v>149</v>
+      </c>
+      <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1051,8 +1377,23 @@
       <c r="E16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" t="s">
+        <v>131</v>
+      </c>
+      <c r="H16" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+      <c r="J16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1068,8 +1409,23 @@
       <c r="E17" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1085,8 +1441,23 @@
       <c r="E18" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>130</v>
+      </c>
+      <c r="G18" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1102,8 +1473,23 @@
       <c r="E19" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>130</v>
+      </c>
+      <c r="G19" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" t="s">
+        <v>143</v>
+      </c>
+      <c r="I19" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1119,8 +1505,23 @@
       <c r="E20" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" t="s">
+        <v>131</v>
+      </c>
+      <c r="H20" t="s">
+        <v>143</v>
+      </c>
+      <c r="I20" t="s">
+        <v>143</v>
+      </c>
+      <c r="J20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1136,8 +1537,23 @@
       <c r="E21" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>143</v>
+      </c>
+      <c r="I21" t="s">
+        <v>143</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1569,23 @@
       <c r="E22" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>134</v>
+      </c>
+      <c r="H22" t="s">
+        <v>91</v>
+      </c>
+      <c r="I22" t="s">
+        <v>144</v>
+      </c>
+      <c r="J22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1170,8 +1601,23 @@
       <c r="E23" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1187,8 +1633,23 @@
       <c r="E24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>130</v>
+      </c>
+      <c r="G24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1204,8 +1665,23 @@
       <c r="E25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>130</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+      <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -1221,8 +1697,23 @@
       <c r="E26" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -1238,8 +1729,23 @@
       <c r="E27" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" t="s">
+        <v>136</v>
+      </c>
+      <c r="H27" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" t="s">
+        <v>136</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -1255,8 +1761,23 @@
       <c r="E28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" t="s">
+        <v>136</v>
+      </c>
+      <c r="H28" t="s">
+        <v>136</v>
+      </c>
+      <c r="I28" t="s">
+        <v>136</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1272,8 +1793,23 @@
       <c r="E29" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>130</v>
+      </c>
+      <c r="G29" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" t="s">
+        <v>136</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1289,8 +1825,23 @@
       <c r="E30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1306,8 +1857,23 @@
       <c r="E31" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>136</v>
+      </c>
+      <c r="I31" t="s">
+        <v>136</v>
+      </c>
+      <c r="J31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1323,8 +1889,23 @@
       <c r="E32" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" t="s">
+        <v>136</v>
+      </c>
+      <c r="I32" t="s">
+        <v>136</v>
+      </c>
+      <c r="J32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -1340,8 +1921,23 @@
       <c r="E33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" t="s">
+        <v>140</v>
+      </c>
+      <c r="I33" t="s">
+        <v>140</v>
+      </c>
+      <c r="J33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>24</v>
       </c>
@@ -1357,8 +1953,23 @@
       <c r="E34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+      <c r="H34" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1374,8 +1985,23 @@
       <c r="E35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" t="s">
+        <v>141</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>24</v>
       </c>
@@ -1391,8 +2017,23 @@
       <c r="E36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>133</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" t="s">
+        <v>141</v>
+      </c>
+      <c r="I36" t="s">
+        <v>142</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>24</v>
       </c>
@@ -1408,8 +2049,23 @@
       <c r="E37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>133</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+      <c r="H37" t="s">
+        <v>141</v>
+      </c>
+      <c r="I37" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +2081,23 @@
       <c r="E38" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" t="s">
+        <v>134</v>
+      </c>
+      <c r="H38" t="s">
+        <v>141</v>
+      </c>
+      <c r="I38" t="s">
+        <v>142</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>24</v>
       </c>
@@ -1442,8 +2113,23 @@
       <c r="E39" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" t="s">
+        <v>141</v>
+      </c>
+      <c r="I39" t="s">
+        <v>142</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>24</v>
       </c>
@@ -1459,8 +2145,23 @@
       <c r="E40" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>133</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H40" t="s">
+        <v>141</v>
+      </c>
+      <c r="I40" t="s">
+        <v>142</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1476,8 +2177,23 @@
       <c r="E41" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>133</v>
+      </c>
+      <c r="G41" t="s">
+        <v>134</v>
+      </c>
+      <c r="H41" t="s">
+        <v>141</v>
+      </c>
+      <c r="I41" t="s">
+        <v>142</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -1493,8 +2209,23 @@
       <c r="E42" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" t="s">
+        <v>134</v>
+      </c>
+      <c r="H42" t="s">
+        <v>141</v>
+      </c>
+      <c r="I42" t="s">
+        <v>142</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -1510,8 +2241,23 @@
       <c r="E43" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>133</v>
+      </c>
+      <c r="G43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H43" t="s">
+        <v>141</v>
+      </c>
+      <c r="I43" t="s">
+        <v>142</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -1527,8 +2273,23 @@
       <c r="E44" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" t="s">
+        <v>134</v>
+      </c>
+      <c r="H44" t="s">
+        <v>141</v>
+      </c>
+      <c r="I44" t="s">
+        <v>142</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -1544,8 +2305,23 @@
       <c r="E45" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>133</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>141</v>
+      </c>
+      <c r="I45" t="s">
+        <v>142</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1561,8 +2337,23 @@
       <c r="E46" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>133</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+      <c r="H46" t="s">
+        <v>141</v>
+      </c>
+      <c r="I46" t="s">
+        <v>142</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -1578,8 +2369,23 @@
       <c r="E47" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>133</v>
+      </c>
+      <c r="G47" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" t="s">
+        <v>141</v>
+      </c>
+      <c r="I47" t="s">
+        <v>142</v>
+      </c>
+      <c r="J47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -1595,8 +2401,23 @@
       <c r="E48" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>133</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+      <c r="H48" t="s">
+        <v>141</v>
+      </c>
+      <c r="I48" t="s">
+        <v>142</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>24</v>
       </c>
@@ -1612,8 +2433,23 @@
       <c r="E49" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+      <c r="H49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I49" t="s">
+        <v>142</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -1629,8 +2465,23 @@
       <c r="E50" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>133</v>
+      </c>
+      <c r="G50" t="s">
+        <v>134</v>
+      </c>
+      <c r="H50" t="s">
+        <v>141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>142</v>
+      </c>
+      <c r="J50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1646,8 +2497,23 @@
       <c r="E51" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>133</v>
+      </c>
+      <c r="G51" t="s">
+        <v>134</v>
+      </c>
+      <c r="H51" t="s">
+        <v>141</v>
+      </c>
+      <c r="I51" t="s">
+        <v>142</v>
+      </c>
+      <c r="J51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1663,8 +2529,23 @@
       <c r="E52" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52" t="s">
+        <v>141</v>
+      </c>
+      <c r="I52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +2561,23 @@
       <c r="E53" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" t="s">
+        <v>134</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+      <c r="I53" t="s">
+        <v>142</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>24</v>
       </c>
@@ -1697,8 +2593,23 @@
       <c r="E54" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>133</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54" t="s">
+        <v>141</v>
+      </c>
+      <c r="I54" t="s">
+        <v>142</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>24</v>
       </c>
@@ -1714,8 +2625,23 @@
       <c r="E55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>24</v>
       </c>
@@ -1731,8 +2657,23 @@
       <c r="E56" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56" t="s">
+        <v>141</v>
+      </c>
+      <c r="I56" t="s">
+        <v>142</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>24</v>
       </c>
@@ -1748,8 +2689,23 @@
       <c r="E57" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>133</v>
+      </c>
+      <c r="G57" t="s">
+        <v>134</v>
+      </c>
+      <c r="H57" t="s">
+        <v>141</v>
+      </c>
+      <c r="I57" t="s">
+        <v>142</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>24</v>
       </c>
@@ -1765,8 +2721,23 @@
       <c r="E58" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G58" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" t="s">
+        <v>141</v>
+      </c>
+      <c r="I58" t="s">
+        <v>142</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>24</v>
       </c>
@@ -1782,8 +2753,23 @@
       <c r="E59" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>133</v>
+      </c>
+      <c r="G59" t="s">
+        <v>134</v>
+      </c>
+      <c r="H59" t="s">
+        <v>141</v>
+      </c>
+      <c r="I59" t="s">
+        <v>142</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -1799,8 +2785,23 @@
       <c r="E60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>133</v>
+      </c>
+      <c r="G60" t="s">
+        <v>134</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I60" t="s">
+        <v>142</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>24</v>
       </c>
@@ -1816,8 +2817,23 @@
       <c r="E61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" t="s">
+        <v>134</v>
+      </c>
+      <c r="H61" t="s">
+        <v>141</v>
+      </c>
+      <c r="I61" t="s">
+        <v>142</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1833,8 +2849,23 @@
       <c r="E62" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" t="s">
+        <v>134</v>
+      </c>
+      <c r="H62" t="s">
+        <v>141</v>
+      </c>
+      <c r="I62" t="s">
+        <v>142</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>24</v>
       </c>
@@ -1850,8 +2881,23 @@
       <c r="E63" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>133</v>
+      </c>
+      <c r="G63" t="s">
+        <v>134</v>
+      </c>
+      <c r="H63" t="s">
+        <v>141</v>
+      </c>
+      <c r="I63" t="s">
+        <v>142</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>24</v>
       </c>
@@ -1867,8 +2913,23 @@
       <c r="E64" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>133</v>
+      </c>
+      <c r="G64" t="s">
+        <v>134</v>
+      </c>
+      <c r="H64" t="s">
+        <v>141</v>
+      </c>
+      <c r="I64" t="s">
+        <v>142</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -1884,8 +2945,23 @@
       <c r="E65" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" t="s">
+        <v>134</v>
+      </c>
+      <c r="H65" t="s">
+        <v>141</v>
+      </c>
+      <c r="I65" t="s">
+        <v>142</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1901,8 +2977,23 @@
       <c r="E66" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H66" t="s">
+        <v>141</v>
+      </c>
+      <c r="I66" t="s">
+        <v>142</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -1918,8 +3009,23 @@
       <c r="E67" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>133</v>
+      </c>
+      <c r="G67" t="s">
+        <v>134</v>
+      </c>
+      <c r="H67" t="s">
+        <v>141</v>
+      </c>
+      <c r="I67" t="s">
+        <v>142</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +3041,23 @@
       <c r="E68" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>133</v>
+      </c>
+      <c r="G68" t="s">
+        <v>134</v>
+      </c>
+      <c r="H68" t="s">
+        <v>141</v>
+      </c>
+      <c r="I68" t="s">
+        <v>142</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -1952,8 +3073,23 @@
       <c r="E69" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>133</v>
+      </c>
+      <c r="G69" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" t="s">
+        <v>141</v>
+      </c>
+      <c r="I69" t="s">
+        <v>142</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -1969,8 +3105,23 @@
       <c r="E70" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>133</v>
+      </c>
+      <c r="G70" t="s">
+        <v>134</v>
+      </c>
+      <c r="H70" t="s">
+        <v>141</v>
+      </c>
+      <c r="I70" t="s">
+        <v>142</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -1986,8 +3137,23 @@
       <c r="E71" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" t="s">
+        <v>134</v>
+      </c>
+      <c r="H71" t="s">
+        <v>141</v>
+      </c>
+      <c r="I71" t="s">
+        <v>142</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -2003,8 +3169,23 @@
       <c r="E72" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>133</v>
+      </c>
+      <c r="G72" t="s">
+        <v>134</v>
+      </c>
+      <c r="H72" t="s">
+        <v>141</v>
+      </c>
+      <c r="I72" t="s">
+        <v>142</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -2020,8 +3201,23 @@
       <c r="E73" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>130</v>
+      </c>
+      <c r="G73" t="s">
+        <v>136</v>
+      </c>
+      <c r="H73" t="s">
+        <v>136</v>
+      </c>
+      <c r="I73" t="s">
+        <v>136</v>
+      </c>
+      <c r="J73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -2037,8 +3233,23 @@
       <c r="E74" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>133</v>
+      </c>
+      <c r="G74" t="s">
+        <v>134</v>
+      </c>
+      <c r="H74" t="s">
+        <v>141</v>
+      </c>
+      <c r="I74" t="s">
+        <v>142</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -2054,8 +3265,23 @@
       <c r="E75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>133</v>
+      </c>
+      <c r="G75" t="s">
+        <v>134</v>
+      </c>
+      <c r="H75" t="s">
+        <v>141</v>
+      </c>
+      <c r="I75" t="s">
+        <v>142</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -2071,8 +3297,23 @@
       <c r="E76" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>133</v>
+      </c>
+      <c r="G76" t="s">
+        <v>134</v>
+      </c>
+      <c r="H76" t="s">
+        <v>141</v>
+      </c>
+      <c r="I76" t="s">
+        <v>142</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -2088,8 +3329,23 @@
       <c r="E77" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>133</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
+      </c>
+      <c r="H77" t="s">
+        <v>141</v>
+      </c>
+      <c r="I77" t="s">
+        <v>142</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>24</v>
       </c>
@@ -2105,8 +3361,23 @@
       <c r="E78" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>133</v>
+      </c>
+      <c r="G78" t="s">
+        <v>134</v>
+      </c>
+      <c r="H78" t="s">
+        <v>141</v>
+      </c>
+      <c r="I78" t="s">
+        <v>142</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>24</v>
       </c>
@@ -2122,8 +3393,23 @@
       <c r="E79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>133</v>
+      </c>
+      <c r="G79" t="s">
+        <v>134</v>
+      </c>
+      <c r="H79" t="s">
+        <v>141</v>
+      </c>
+      <c r="I79" t="s">
+        <v>142</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2139,8 +3425,23 @@
       <c r="E80" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>133</v>
+      </c>
+      <c r="G80" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" t="s">
+        <v>141</v>
+      </c>
+      <c r="I80" t="s">
+        <v>142</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2156,8 +3457,23 @@
       <c r="E81" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>133</v>
+      </c>
+      <c r="G81" t="s">
+        <v>134</v>
+      </c>
+      <c r="H81" t="s">
+        <v>141</v>
+      </c>
+      <c r="I81" t="s">
+        <v>142</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2173,8 +3489,23 @@
       <c r="E82" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>133</v>
+      </c>
+      <c r="G82" t="s">
+        <v>134</v>
+      </c>
+      <c r="H82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2190,8 +3521,23 @@
       <c r="E83" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G83" t="s">
+        <v>134</v>
+      </c>
+      <c r="H83" t="s">
+        <v>141</v>
+      </c>
+      <c r="I83" t="s">
+        <v>142</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2207,8 +3553,23 @@
       <c r="E84" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>130</v>
+      </c>
+      <c r="G84" t="s">
+        <v>131</v>
+      </c>
+      <c r="H84" t="s">
+        <v>143</v>
+      </c>
+      <c r="I84" t="s">
+        <v>143</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2224,8 +3585,23 @@
       <c r="E85" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>133</v>
+      </c>
+      <c r="G85" t="s">
+        <v>134</v>
+      </c>
+      <c r="H85" t="s">
+        <v>141</v>
+      </c>
+      <c r="I85" t="s">
+        <v>142</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2241,8 +3617,23 @@
       <c r="E86" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>130</v>
+      </c>
+      <c r="G86" t="s">
+        <v>131</v>
+      </c>
+      <c r="H86" t="s">
+        <v>135</v>
+      </c>
+      <c r="I86" t="s">
+        <v>135</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2258,8 +3649,23 @@
       <c r="E87" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>133</v>
+      </c>
+      <c r="G87" t="s">
+        <v>134</v>
+      </c>
+      <c r="H87" t="s">
+        <v>141</v>
+      </c>
+      <c r="I87" t="s">
+        <v>142</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2275,8 +3681,23 @@
       <c r="E88" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>133</v>
+      </c>
+      <c r="G88" t="s">
+        <v>134</v>
+      </c>
+      <c r="H88" t="s">
+        <v>141</v>
+      </c>
+      <c r="I88" t="s">
+        <v>142</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2292,8 +3713,23 @@
       <c r="E89" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>133</v>
+      </c>
+      <c r="G89" t="s">
+        <v>134</v>
+      </c>
+      <c r="H89" t="s">
+        <v>141</v>
+      </c>
+      <c r="I89" t="s">
+        <v>142</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2309,8 +3745,23 @@
       <c r="E90" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>133</v>
+      </c>
+      <c r="G90" t="s">
+        <v>134</v>
+      </c>
+      <c r="H90" t="s">
+        <v>141</v>
+      </c>
+      <c r="I90" t="s">
+        <v>142</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>72</v>
       </c>
@@ -2326,8 +3777,23 @@
       <c r="E91" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>130</v>
+      </c>
+      <c r="G91" t="s">
+        <v>145</v>
+      </c>
+      <c r="H91" t="s">
+        <v>101</v>
+      </c>
+      <c r="I91" t="s">
+        <v>148</v>
+      </c>
+      <c r="J91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>72</v>
       </c>
@@ -2343,8 +3809,23 @@
       <c r="E92" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>130</v>
+      </c>
+      <c r="G92" t="s">
+        <v>145</v>
+      </c>
+      <c r="H92" t="s">
+        <v>101</v>
+      </c>
+      <c r="I92" t="s">
+        <v>148</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>73</v>
       </c>
@@ -2360,8 +3841,23 @@
       <c r="E93" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>133</v>
+      </c>
+      <c r="G93" t="s">
+        <v>134</v>
+      </c>
+      <c r="H93" t="s">
+        <v>102</v>
+      </c>
+      <c r="I93" t="s">
+        <v>142</v>
+      </c>
+      <c r="J93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>73</v>
       </c>
@@ -2377,8 +3873,23 @@
       <c r="E94" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" t="s">
+        <v>134</v>
+      </c>
+      <c r="H94" t="s">
+        <v>102</v>
+      </c>
+      <c r="I94" t="s">
+        <v>142</v>
+      </c>
+      <c r="J94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>73</v>
       </c>
@@ -2394,8 +3905,23 @@
       <c r="E95" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>133</v>
+      </c>
+      <c r="G95" t="s">
+        <v>134</v>
+      </c>
+      <c r="H95" t="s">
+        <v>102</v>
+      </c>
+      <c r="I95" t="s">
+        <v>142</v>
+      </c>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>73</v>
       </c>
@@ -2411,8 +3937,23 @@
       <c r="E96" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>133</v>
+      </c>
+      <c r="G96" t="s">
+        <v>134</v>
+      </c>
+      <c r="H96" t="s">
+        <v>102</v>
+      </c>
+      <c r="I96" t="s">
+        <v>142</v>
+      </c>
+      <c r="J96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>73</v>
       </c>
@@ -2428,8 +3969,23 @@
       <c r="E97" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>133</v>
+      </c>
+      <c r="G97" t="s">
+        <v>134</v>
+      </c>
+      <c r="H97" t="s">
+        <v>102</v>
+      </c>
+      <c r="I97" t="s">
+        <v>142</v>
+      </c>
+      <c r="J97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2445,8 +4001,23 @@
       <c r="E98" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>133</v>
+      </c>
+      <c r="G98" t="s">
+        <v>134</v>
+      </c>
+      <c r="H98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I98" t="s">
+        <v>142</v>
+      </c>
+      <c r="J98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2462,8 +4033,23 @@
       <c r="E99" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G99" t="s">
+        <v>136</v>
+      </c>
+      <c r="H99" t="s">
+        <v>138</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+      <c r="J99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -2479,8 +4065,23 @@
       <c r="E100" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>130</v>
+      </c>
+      <c r="G100" t="s">
+        <v>136</v>
+      </c>
+      <c r="H100" t="s">
+        <v>138</v>
+      </c>
+      <c r="I100" t="s">
+        <v>136</v>
+      </c>
+      <c r="J100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>74</v>
       </c>
@@ -2496,8 +4097,23 @@
       <c r="E101" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>130</v>
+      </c>
+      <c r="G101" t="s">
+        <v>136</v>
+      </c>
+      <c r="H101" t="s">
+        <v>138</v>
+      </c>
+      <c r="I101" t="s">
+        <v>136</v>
+      </c>
+      <c r="J101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>74</v>
       </c>
@@ -2513,8 +4129,23 @@
       <c r="E102" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>133</v>
+      </c>
+      <c r="G102" t="s">
+        <v>134</v>
+      </c>
+      <c r="H102" t="s">
+        <v>140</v>
+      </c>
+      <c r="I102" t="s">
+        <v>140</v>
+      </c>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>75</v>
       </c>
@@ -2530,8 +4161,23 @@
       <c r="E103" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>130</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
+        <v>146</v>
+      </c>
+      <c r="I103" t="s">
+        <v>147</v>
+      </c>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>76</v>
       </c>
@@ -2547,8 +4193,23 @@
       <c r="E104" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>130</v>
+      </c>
+      <c r="G104" t="s">
+        <v>136</v>
+      </c>
+      <c r="H104" t="s">
+        <v>137</v>
+      </c>
+      <c r="I104" t="s">
+        <v>136</v>
+      </c>
+      <c r="J104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>76</v>
       </c>
@@ -2564,8 +4225,23 @@
       <c r="E105" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>130</v>
+      </c>
+      <c r="G105" t="s">
+        <v>136</v>
+      </c>
+      <c r="H105" t="s">
+        <v>137</v>
+      </c>
+      <c r="I105" t="s">
+        <v>136</v>
+      </c>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>76</v>
       </c>
@@ -2581,8 +4257,23 @@
       <c r="E106" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>130</v>
+      </c>
+      <c r="G106" t="s">
+        <v>136</v>
+      </c>
+      <c r="H106" t="s">
+        <v>137</v>
+      </c>
+      <c r="I106" t="s">
+        <v>136</v>
+      </c>
+      <c r="J106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>76</v>
       </c>
@@ -2598,8 +4289,23 @@
       <c r="E107" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>130</v>
+      </c>
+      <c r="G107" t="s">
+        <v>136</v>
+      </c>
+      <c r="H107" t="s">
+        <v>137</v>
+      </c>
+      <c r="I107" t="s">
+        <v>136</v>
+      </c>
+      <c r="J107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>76</v>
       </c>
@@ -2615,8 +4321,23 @@
       <c r="E108" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>130</v>
+      </c>
+      <c r="G108" t="s">
+        <v>136</v>
+      </c>
+      <c r="H108" t="s">
+        <v>137</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>76</v>
       </c>
@@ -2632,8 +4353,23 @@
       <c r="E109" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>130</v>
+      </c>
+      <c r="G109" t="s">
+        <v>131</v>
+      </c>
+      <c r="H109" t="s">
+        <v>131</v>
+      </c>
+      <c r="I109" t="s">
+        <v>131</v>
+      </c>
+      <c r="J109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>76</v>
       </c>
@@ -2649,8 +4385,23 @@
       <c r="E110" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G110" t="s">
+        <v>131</v>
+      </c>
+      <c r="H110" t="s">
+        <v>131</v>
+      </c>
+      <c r="I110" t="s">
+        <v>131</v>
+      </c>
+      <c r="J110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>76</v>
       </c>
@@ -2666,8 +4417,23 @@
       <c r="E111" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>130</v>
+      </c>
+      <c r="G111" t="s">
+        <v>131</v>
+      </c>
+      <c r="H111" t="s">
+        <v>131</v>
+      </c>
+      <c r="I111" t="s">
+        <v>131</v>
+      </c>
+      <c r="J111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>76</v>
       </c>
@@ -2683,8 +4449,23 @@
       <c r="E112" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>130</v>
+      </c>
+      <c r="G112" t="s">
+        <v>136</v>
+      </c>
+      <c r="H112" t="s">
+        <v>137</v>
+      </c>
+      <c r="I112" t="s">
+        <v>136</v>
+      </c>
+      <c r="J112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>76</v>
       </c>
@@ -2700,8 +4481,23 @@
       <c r="E113" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>130</v>
+      </c>
+      <c r="G113" t="s">
+        <v>136</v>
+      </c>
+      <c r="H113" t="s">
+        <v>137</v>
+      </c>
+      <c r="I113" t="s">
+        <v>136</v>
+      </c>
+      <c r="J113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>76</v>
       </c>
@@ -2717,8 +4513,23 @@
       <c r="E114" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>130</v>
+      </c>
+      <c r="G114" t="s">
+        <v>131</v>
+      </c>
+      <c r="H114" t="s">
+        <v>131</v>
+      </c>
+      <c r="I114" t="s">
+        <v>131</v>
+      </c>
+      <c r="J114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>76</v>
       </c>
@@ -2734,8 +4545,23 @@
       <c r="E115" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G115" t="s">
+        <v>136</v>
+      </c>
+      <c r="H115" t="s">
+        <v>137</v>
+      </c>
+      <c r="I115" t="s">
+        <v>136</v>
+      </c>
+      <c r="J115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>76</v>
       </c>
@@ -2751,8 +4577,23 @@
       <c r="E116" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>130</v>
+      </c>
+      <c r="G116" t="s">
+        <v>136</v>
+      </c>
+      <c r="H116" t="s">
+        <v>137</v>
+      </c>
+      <c r="I116" t="s">
+        <v>136</v>
+      </c>
+      <c r="J116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>76</v>
       </c>
@@ -2768,8 +4609,23 @@
       <c r="E117" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>130</v>
+      </c>
+      <c r="G117" t="s">
+        <v>136</v>
+      </c>
+      <c r="H117" t="s">
+        <v>137</v>
+      </c>
+      <c r="I117" t="s">
+        <v>136</v>
+      </c>
+      <c r="J117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>76</v>
       </c>
@@ -2785,8 +4641,23 @@
       <c r="E118" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>130</v>
+      </c>
+      <c r="G118" t="s">
+        <v>136</v>
+      </c>
+      <c r="H118" t="s">
+        <v>137</v>
+      </c>
+      <c r="I118" t="s">
+        <v>136</v>
+      </c>
+      <c r="J118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>76</v>
       </c>
@@ -2802,8 +4673,23 @@
       <c r="E119" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>130</v>
+      </c>
+      <c r="G119" t="s">
+        <v>136</v>
+      </c>
+      <c r="H119" t="s">
+        <v>138</v>
+      </c>
+      <c r="I119" t="s">
+        <v>136</v>
+      </c>
+      <c r="J119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>76</v>
       </c>
@@ -2819,8 +4705,23 @@
       <c r="E120" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>130</v>
+      </c>
+      <c r="G120" t="s">
+        <v>136</v>
+      </c>
+      <c r="H120" t="s">
+        <v>138</v>
+      </c>
+      <c r="I120" t="s">
+        <v>136</v>
+      </c>
+      <c r="J120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>76</v>
       </c>
@@ -2836,8 +4737,23 @@
       <c r="E121" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>130</v>
+      </c>
+      <c r="G121" t="s">
+        <v>131</v>
+      </c>
+      <c r="H121" t="s">
+        <v>131</v>
+      </c>
+      <c r="I121" t="s">
+        <v>131</v>
+      </c>
+      <c r="J121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>76</v>
       </c>
@@ -2853,8 +4769,23 @@
       <c r="E122" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>130</v>
+      </c>
+      <c r="G122" t="s">
+        <v>136</v>
+      </c>
+      <c r="H122" t="s">
+        <v>137</v>
+      </c>
+      <c r="I122" t="s">
+        <v>136</v>
+      </c>
+      <c r="J122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>77</v>
       </c>
@@ -2870,8 +4801,23 @@
       <c r="E123" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>130</v>
+      </c>
+      <c r="G123" t="s">
+        <v>134</v>
+      </c>
+      <c r="H123" t="s">
+        <v>139</v>
+      </c>
+      <c r="I123" t="s">
+        <v>139</v>
+      </c>
+      <c r="J123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>77</v>
       </c>
@@ -2887,8 +4833,23 @@
       <c r="E124" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>130</v>
+      </c>
+      <c r="G124" t="s">
+        <v>134</v>
+      </c>
+      <c r="H124" t="s">
+        <v>139</v>
+      </c>
+      <c r="I124" t="s">
+        <v>139</v>
+      </c>
+      <c r="J124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>78</v>
       </c>
@@ -2904,8 +4865,23 @@
       <c r="E125" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>130</v>
+      </c>
+      <c r="G125" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125" t="s">
+        <v>131</v>
+      </c>
+      <c r="I125" t="s">
+        <v>131</v>
+      </c>
+      <c r="J125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>78</v>
       </c>
@@ -2921,8 +4897,23 @@
       <c r="E126" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>130</v>
+      </c>
+      <c r="G126" t="s">
+        <v>131</v>
+      </c>
+      <c r="H126" t="s">
+        <v>131</v>
+      </c>
+      <c r="I126" t="s">
+        <v>131</v>
+      </c>
+      <c r="J126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>78</v>
       </c>
@@ -2938,8 +4929,23 @@
       <c r="E127" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>130</v>
+      </c>
+      <c r="G127" t="s">
+        <v>131</v>
+      </c>
+      <c r="H127" t="s">
+        <v>131</v>
+      </c>
+      <c r="I127" t="s">
+        <v>131</v>
+      </c>
+      <c r="J127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>79</v>
       </c>
@@ -2955,8 +4961,23 @@
       <c r="E128" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>133</v>
+      </c>
+      <c r="G128" t="s">
+        <v>134</v>
+      </c>
+      <c r="H128" t="s">
+        <v>135</v>
+      </c>
+      <c r="I128" t="s">
+        <v>135</v>
+      </c>
+      <c r="J128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>79</v>
       </c>
@@ -2972,8 +4993,23 @@
       <c r="E129" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>130</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
+      <c r="H129" t="s">
+        <v>146</v>
+      </c>
+      <c r="I129" t="s">
+        <v>147</v>
+      </c>
+      <c r="J129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>79</v>
       </c>
@@ -2988,6 +5024,21 @@
       </c>
       <c r="E130" t="s">
         <v>124</v>
+      </c>
+      <c r="F130" t="s">
+        <v>130</v>
+      </c>
+      <c r="G130" t="s">
+        <v>145</v>
+      </c>
+      <c r="H130" t="s">
+        <v>146</v>
+      </c>
+      <c r="I130" t="s">
+        <v>147</v>
+      </c>
+      <c r="J130" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A060DF9A-C07F-084F-A429-CA7715FED91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8572AA0-16AB-2040-A3E6-019A395F1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="5160" windowWidth="37620" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="280">
   <si>
     <t>DOI</t>
   </si>
@@ -470,6 +470,396 @@
   </si>
   <si>
     <t>Bioluminescence</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01055-y_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01055-y_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01055-y_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01058-9_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01059-8_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01059-8_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01059-8_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-022-01059-8_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01093-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01093-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01093-0_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01117-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01117-9_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01152-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01152-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01162-4_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01182-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig20</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig21</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig22</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig23</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig24</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig25</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig26</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig27</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig28</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig29</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig30</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig31</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig32</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig33</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig34</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig35</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig36</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig37</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig38</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig39</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig40</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig41</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig42</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig43</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig44</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig45</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig46</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig47</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig48</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig49</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig50</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig51</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig52</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig53</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig54</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig55</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig56</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig57</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01193-x_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01212-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01212-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01224-7_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01225-6_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01238-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01241-6_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01247-0_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01247-0_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01258-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01258-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01258-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01264-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01264-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41556-023-01264-z_zero_fig3</t>
   </si>
 </sst>
 </file>
@@ -870,70 +1260,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" zoomScale="109" workbookViewId="0">
-      <selection activeCell="H124" sqref="H124"/>
+      <selection activeCell="A115" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>130</v>
-      </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -942,62 +1335,68 @@
         <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>82</v>
       </c>
-      <c r="F3" t="s">
-        <v>130</v>
-      </c>
       <c r="G3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H3" t="s">
         <v>136</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>137</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>136</v>
       </c>
-      <c r="J3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>83</v>
       </c>
-      <c r="F4" t="s">
-        <v>130</v>
-      </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
         <v>131</v>
@@ -1006,30 +1405,33 @@
         <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>84</v>
       </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H5" t="s">
         <v>131</v>
@@ -1038,30 +1440,33 @@
         <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>84</v>
       </c>
-      <c r="F6" t="s">
-        <v>130</v>
-      </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H6" t="s">
         <v>131</v>
@@ -1070,30 +1475,33 @@
         <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>85</v>
       </c>
-      <c r="F7" t="s">
-        <v>130</v>
-      </c>
       <c r="G7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H7" t="s">
         <v>131</v>
@@ -1102,30 +1510,33 @@
         <v>131</v>
       </c>
       <c r="J7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>84</v>
       </c>
-      <c r="F8" t="s">
-        <v>130</v>
-      </c>
       <c r="G8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
         <v>131</v>
@@ -1134,30 +1545,33 @@
         <v>131</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>84</v>
       </c>
-      <c r="F9" t="s">
-        <v>130</v>
-      </c>
       <c r="G9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H9" t="s">
         <v>131</v>
@@ -1166,30 +1580,33 @@
         <v>131</v>
       </c>
       <c r="J9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>84</v>
       </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H10" t="s">
         <v>131</v>
@@ -1198,30 +1615,33 @@
         <v>131</v>
       </c>
       <c r="J10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>84</v>
       </c>
-      <c r="F11" t="s">
-        <v>130</v>
-      </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
         <v>131</v>
@@ -1230,30 +1650,33 @@
         <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>130</v>
-      </c>
       <c r="G12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H12" t="s">
         <v>131</v>
@@ -1262,62 +1685,68 @@
         <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>86</v>
       </c>
-      <c r="F13" t="s">
-        <v>133</v>
-      </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I13" t="s">
         <v>135</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>84</v>
       </c>
-      <c r="F14" t="s">
-        <v>130</v>
-      </c>
       <c r="G14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
         <v>131</v>
@@ -1326,62 +1755,68 @@
         <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>87</v>
       </c>
-      <c r="F15" t="s">
-        <v>130</v>
-      </c>
       <c r="G15" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" t="s">
         <v>145</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>149</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>147</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="F16" t="s">
-        <v>130</v>
-      </c>
       <c r="G16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
         <v>131</v>
@@ -1390,30 +1825,33 @@
         <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>88</v>
       </c>
-      <c r="F17" t="s">
-        <v>130</v>
-      </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H17" t="s">
         <v>131</v>
@@ -1422,318 +1860,348 @@
         <v>131</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>12</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>87</v>
       </c>
-      <c r="F18" t="s">
-        <v>130</v>
-      </c>
       <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
         <v>145</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>149</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>147</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>89</v>
       </c>
-      <c r="F19" t="s">
-        <v>130</v>
-      </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I19" t="s">
         <v>143</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+      <c r="K19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="F20" t="s">
-        <v>130</v>
-      </c>
       <c r="G20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I20" t="s">
         <v>143</v>
       </c>
       <c r="J20" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="K20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B21" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>90</v>
       </c>
-      <c r="F21" t="s">
-        <v>130</v>
-      </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I21" t="s">
         <v>143</v>
       </c>
       <c r="J21" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>91</v>
       </c>
-      <c r="F22" t="s">
-        <v>133</v>
-      </c>
       <c r="G22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H22" t="s">
+        <v>134</v>
+      </c>
+      <c r="I22" t="s">
         <v>91</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>144</v>
       </c>
-      <c r="J22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>8</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>91</v>
       </c>
-      <c r="F23" t="s">
-        <v>133</v>
-      </c>
       <c r="G23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" t="s">
         <v>91</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>144</v>
       </c>
-      <c r="J23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>92</v>
       </c>
-      <c r="F24" t="s">
-        <v>130</v>
-      </c>
       <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" t="s">
         <v>145</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>146</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>147</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
         <v>21</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>92</v>
       </c>
-      <c r="F25" t="s">
-        <v>130</v>
-      </c>
       <c r="G25" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" t="s">
         <v>145</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>146</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>147</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>6</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
-        <v>133</v>
-      </c>
       <c r="G26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I26" t="s">
         <v>140</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="s">
-        <v>130</v>
-      </c>
       <c r="G27" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H27" t="s">
         <v>136</v>
@@ -1742,30 +2210,33 @@
         <v>136</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="K27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>9</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>95</v>
       </c>
-      <c r="F28" t="s">
-        <v>130</v>
-      </c>
       <c r="G28" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
         <v>136</v>
@@ -1774,30 +2245,33 @@
         <v>136</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="K28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>95</v>
       </c>
-      <c r="F29" t="s">
-        <v>130</v>
-      </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
         <v>136</v>
@@ -1806,62 +2280,68 @@
         <v>136</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+        <v>136</v>
+      </c>
+      <c r="K29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>13</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
-        <v>133</v>
-      </c>
       <c r="G30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H30" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I30" t="s">
         <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>14</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>94</v>
       </c>
-      <c r="F31" t="s">
-        <v>130</v>
-      </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H31" t="s">
         <v>136</v>
@@ -1870,30 +2350,33 @@
         <v>136</v>
       </c>
       <c r="J31" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>15</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>95</v>
       </c>
-      <c r="F32" t="s">
-        <v>130</v>
-      </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
         <v>136</v>
@@ -1902,1310 +2385,1433 @@
         <v>136</v>
       </c>
       <c r="J32" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>6</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>96</v>
       </c>
-      <c r="F33" t="s">
-        <v>133</v>
-      </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H33" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
         <v>140</v>
       </c>
       <c r="J33" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B34" t="s">
         <v>24</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>6</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>97</v>
       </c>
-      <c r="F34" t="s">
-        <v>133</v>
-      </c>
       <c r="G34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
         <v>141</v>
       </c>
-      <c r="I34" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34">
+      <c r="J34" t="s">
+        <v>142</v>
+      </c>
+      <c r="K34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>11</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>97</v>
       </c>
-      <c r="F35" t="s">
-        <v>133</v>
-      </c>
       <c r="G35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I35" t="s">
         <v>141</v>
       </c>
-      <c r="I35" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>142</v>
+      </c>
+      <c r="K35">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" t="s">
         <v>24</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>97</v>
       </c>
-      <c r="F36" t="s">
-        <v>133</v>
-      </c>
       <c r="G36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H36" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" t="s">
         <v>141</v>
       </c>
-      <c r="I36" t="s">
-        <v>142</v>
-      </c>
-      <c r="J36">
+      <c r="J36" t="s">
+        <v>142</v>
+      </c>
+      <c r="K36">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
         <v>24</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>97</v>
       </c>
-      <c r="F37" t="s">
-        <v>133</v>
-      </c>
       <c r="G37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H37" t="s">
+        <v>134</v>
+      </c>
+      <c r="I37" t="s">
         <v>141</v>
       </c>
-      <c r="I37" t="s">
-        <v>142</v>
-      </c>
-      <c r="J37">
+      <c r="J37" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
         <v>24</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>27</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>97</v>
       </c>
-      <c r="F38" t="s">
-        <v>133</v>
-      </c>
       <c r="G38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H38" t="s">
+        <v>134</v>
+      </c>
+      <c r="I38" t="s">
         <v>141</v>
       </c>
-      <c r="I38" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38">
+      <c r="J38" t="s">
+        <v>142</v>
+      </c>
+      <c r="K38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>28</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>97</v>
       </c>
-      <c r="F39" t="s">
-        <v>133</v>
-      </c>
       <c r="G39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H39" t="s">
+        <v>134</v>
+      </c>
+      <c r="I39" t="s">
         <v>141</v>
       </c>
-      <c r="I39" t="s">
-        <v>142</v>
-      </c>
-      <c r="J39">
+      <c r="J39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B40" t="s">
         <v>24</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>29</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>97</v>
       </c>
-      <c r="F40" t="s">
-        <v>133</v>
-      </c>
       <c r="G40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
         <v>141</v>
       </c>
-      <c r="I40" t="s">
-        <v>142</v>
-      </c>
-      <c r="J40">
+      <c r="J40" t="s">
+        <v>142</v>
+      </c>
+      <c r="K40">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>30</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>97</v>
       </c>
-      <c r="F41" t="s">
-        <v>133</v>
-      </c>
       <c r="G41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H41" t="s">
+        <v>134</v>
+      </c>
+      <c r="I41" t="s">
         <v>141</v>
       </c>
-      <c r="I41" t="s">
-        <v>142</v>
-      </c>
-      <c r="J41">
+      <c r="J41" t="s">
+        <v>142</v>
+      </c>
+      <c r="K41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B42" t="s">
         <v>24</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>97</v>
       </c>
-      <c r="F42" t="s">
-        <v>133</v>
-      </c>
       <c r="G42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H42" t="s">
+        <v>134</v>
+      </c>
+      <c r="I42" t="s">
         <v>141</v>
       </c>
-      <c r="I42" t="s">
-        <v>142</v>
-      </c>
-      <c r="J42">
+      <c r="J42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>32</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>97</v>
       </c>
-      <c r="F43" t="s">
-        <v>133</v>
-      </c>
       <c r="G43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H43" t="s">
+        <v>134</v>
+      </c>
+      <c r="I43" t="s">
         <v>141</v>
       </c>
-      <c r="I43" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43">
+      <c r="J43" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
         <v>24</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>33</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>97</v>
       </c>
-      <c r="F44" t="s">
-        <v>133</v>
-      </c>
       <c r="G44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I44" t="s">
         <v>141</v>
       </c>
-      <c r="I44" t="s">
-        <v>142</v>
-      </c>
-      <c r="J44">
+      <c r="J44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>97</v>
       </c>
-      <c r="F45" t="s">
-        <v>133</v>
-      </c>
       <c r="G45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
         <v>141</v>
       </c>
-      <c r="I45" t="s">
-        <v>142</v>
-      </c>
-      <c r="J45">
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>97</v>
       </c>
-      <c r="F46" t="s">
-        <v>133</v>
-      </c>
       <c r="G46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H46" t="s">
+        <v>134</v>
+      </c>
+      <c r="I46" t="s">
         <v>141</v>
       </c>
-      <c r="I46" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46">
+      <c r="J46" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46">
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B47" t="s">
         <v>24</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>35</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>97</v>
       </c>
-      <c r="F47" t="s">
-        <v>133</v>
-      </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H47" t="s">
+        <v>134</v>
+      </c>
+      <c r="I47" t="s">
         <v>141</v>
       </c>
-      <c r="I47" t="s">
-        <v>142</v>
-      </c>
-      <c r="J47">
+      <c r="J47" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>36</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>97</v>
       </c>
-      <c r="F48" t="s">
-        <v>133</v>
-      </c>
       <c r="G48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H48" t="s">
+        <v>134</v>
+      </c>
+      <c r="I48" t="s">
         <v>141</v>
       </c>
-      <c r="I48" t="s">
-        <v>142</v>
-      </c>
-      <c r="J48">
+      <c r="J48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" t="s">
         <v>24</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
       </c>
-      <c r="F49" t="s">
-        <v>133</v>
-      </c>
       <c r="G49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" t="s">
         <v>141</v>
       </c>
-      <c r="I49" t="s">
-        <v>142</v>
-      </c>
-      <c r="J49">
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
       </c>
-      <c r="F50" t="s">
-        <v>133</v>
-      </c>
       <c r="G50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H50" t="s">
+        <v>134</v>
+      </c>
+      <c r="I50" t="s">
         <v>141</v>
       </c>
-      <c r="I50" t="s">
-        <v>142</v>
-      </c>
-      <c r="J50">
+      <c r="J50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B51" t="s">
         <v>24</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>39</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
       </c>
-      <c r="F51" t="s">
-        <v>133</v>
-      </c>
       <c r="G51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s">
         <v>141</v>
       </c>
-      <c r="I51" t="s">
-        <v>142</v>
-      </c>
-      <c r="J51">
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>40</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>97</v>
       </c>
-      <c r="F52" t="s">
-        <v>133</v>
-      </c>
       <c r="G52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" t="s">
         <v>141</v>
       </c>
-      <c r="I52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52">
+      <c r="J52" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>41</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>97</v>
       </c>
-      <c r="F53" t="s">
-        <v>133</v>
-      </c>
       <c r="G53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H53" t="s">
+        <v>134</v>
+      </c>
+      <c r="I53" t="s">
         <v>141</v>
       </c>
-      <c r="I53" t="s">
-        <v>142</v>
-      </c>
-      <c r="J53">
+      <c r="J53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>97</v>
       </c>
-      <c r="F54" t="s">
-        <v>133</v>
-      </c>
       <c r="G54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H54" t="s">
+        <v>134</v>
+      </c>
+      <c r="I54" t="s">
         <v>141</v>
       </c>
-      <c r="I54" t="s">
-        <v>142</v>
-      </c>
-      <c r="J54">
+      <c r="J54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" t="s">
         <v>24</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>43</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>97</v>
       </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
       <c r="G55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H55" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" t="s">
         <v>141</v>
       </c>
-      <c r="I55" t="s">
-        <v>142</v>
-      </c>
-      <c r="J55">
+      <c r="J55" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55">
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>97</v>
       </c>
-      <c r="F56" t="s">
-        <v>133</v>
-      </c>
       <c r="G56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H56" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" t="s">
         <v>141</v>
       </c>
-      <c r="I56" t="s">
-        <v>142</v>
-      </c>
-      <c r="J56">
+      <c r="J56" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B57" t="s">
         <v>24</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>44</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>97</v>
       </c>
-      <c r="F57" t="s">
-        <v>133</v>
-      </c>
       <c r="G57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H57" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" t="s">
         <v>141</v>
       </c>
-      <c r="I57" t="s">
-        <v>142</v>
-      </c>
-      <c r="J57">
+      <c r="J57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B58" t="s">
         <v>24</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>45</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>97</v>
       </c>
-      <c r="F58" t="s">
-        <v>133</v>
-      </c>
       <c r="G58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H58" t="s">
+        <v>134</v>
+      </c>
+      <c r="I58" t="s">
         <v>141</v>
       </c>
-      <c r="I58" t="s">
-        <v>142</v>
-      </c>
-      <c r="J58">
+      <c r="J58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58">
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B59" t="s">
         <v>24</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>46</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>97</v>
       </c>
-      <c r="F59" t="s">
-        <v>133</v>
-      </c>
       <c r="G59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H59" t="s">
+        <v>134</v>
+      </c>
+      <c r="I59" t="s">
         <v>141</v>
       </c>
-      <c r="I59" t="s">
-        <v>142</v>
-      </c>
-      <c r="J59">
+      <c r="J59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59">
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B60" t="s">
         <v>24</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>47</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>97</v>
       </c>
-      <c r="F60" t="s">
-        <v>133</v>
-      </c>
       <c r="G60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H60" t="s">
+        <v>134</v>
+      </c>
+      <c r="I60" t="s">
         <v>141</v>
       </c>
-      <c r="I60" t="s">
-        <v>142</v>
-      </c>
-      <c r="J60">
+      <c r="J60" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60">
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
         <v>24</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>48</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>97</v>
       </c>
-      <c r="F61" t="s">
-        <v>133</v>
-      </c>
       <c r="G61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H61" t="s">
+        <v>134</v>
+      </c>
+      <c r="I61" t="s">
         <v>141</v>
       </c>
-      <c r="I61" t="s">
-        <v>142</v>
-      </c>
-      <c r="J61">
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>49</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>97</v>
       </c>
-      <c r="F62" t="s">
-        <v>133</v>
-      </c>
       <c r="G62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H62" t="s">
+        <v>134</v>
+      </c>
+      <c r="I62" t="s">
         <v>141</v>
       </c>
-      <c r="I62" t="s">
-        <v>142</v>
-      </c>
-      <c r="J62">
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B63" t="s">
         <v>24</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>50</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>97</v>
       </c>
-      <c r="F63" t="s">
-        <v>133</v>
-      </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H63" t="s">
+        <v>134</v>
+      </c>
+      <c r="I63" t="s">
         <v>141</v>
       </c>
-      <c r="I63" t="s">
-        <v>142</v>
-      </c>
-      <c r="J63">
+      <c r="J63" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B64" t="s">
         <v>24</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>51</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>97</v>
       </c>
-      <c r="F64" t="s">
-        <v>133</v>
-      </c>
       <c r="G64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H64" t="s">
+        <v>134</v>
+      </c>
+      <c r="I64" t="s">
         <v>141</v>
       </c>
-      <c r="I64" t="s">
-        <v>142</v>
-      </c>
-      <c r="J64">
+      <c r="J64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>52</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>97</v>
       </c>
-      <c r="F65" t="s">
-        <v>133</v>
-      </c>
       <c r="G65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H65" t="s">
+        <v>134</v>
+      </c>
+      <c r="I65" t="s">
         <v>141</v>
       </c>
-      <c r="I65" t="s">
-        <v>142</v>
-      </c>
-      <c r="J65">
+      <c r="J65" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" t="s">
         <v>24</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>53</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>97</v>
       </c>
-      <c r="F66" t="s">
-        <v>133</v>
-      </c>
       <c r="G66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H66" t="s">
+        <v>134</v>
+      </c>
+      <c r="I66" t="s">
         <v>141</v>
       </c>
-      <c r="I66" t="s">
-        <v>142</v>
-      </c>
-      <c r="J66">
+      <c r="J66" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" t="s">
         <v>24</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>12</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>97</v>
       </c>
-      <c r="F67" t="s">
-        <v>133</v>
-      </c>
       <c r="G67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H67" t="s">
+        <v>134</v>
+      </c>
+      <c r="I67" t="s">
         <v>141</v>
       </c>
-      <c r="I67" t="s">
-        <v>142</v>
-      </c>
-      <c r="J67">
+      <c r="J67" t="s">
+        <v>142</v>
+      </c>
+      <c r="K67">
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B68" t="s">
         <v>24</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>54</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>97</v>
       </c>
-      <c r="F68" t="s">
-        <v>133</v>
-      </c>
       <c r="G68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H68" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" t="s">
         <v>141</v>
       </c>
-      <c r="I68" t="s">
-        <v>142</v>
-      </c>
-      <c r="J68">
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>55</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>97</v>
       </c>
-      <c r="F69" t="s">
-        <v>133</v>
-      </c>
       <c r="G69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H69" t="s">
+        <v>134</v>
+      </c>
+      <c r="I69" t="s">
         <v>141</v>
       </c>
-      <c r="I69" t="s">
-        <v>142</v>
-      </c>
-      <c r="J69">
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69">
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B70" t="s">
         <v>24</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>56</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>97</v>
       </c>
-      <c r="F70" t="s">
-        <v>133</v>
-      </c>
       <c r="G70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H70" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" t="s">
         <v>141</v>
       </c>
-      <c r="I70" t="s">
-        <v>142</v>
-      </c>
-      <c r="J70">
+      <c r="J70" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B71" t="s">
         <v>24</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>57</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>97</v>
       </c>
-      <c r="F71" t="s">
-        <v>133</v>
-      </c>
       <c r="G71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H71" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" t="s">
         <v>141</v>
       </c>
-      <c r="I71" t="s">
-        <v>142</v>
-      </c>
-      <c r="J71">
+      <c r="J71" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71">
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B72" t="s">
         <v>24</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>58</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>97</v>
       </c>
-      <c r="F72" t="s">
-        <v>133</v>
-      </c>
       <c r="G72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H72" t="s">
+        <v>134</v>
+      </c>
+      <c r="I72" t="s">
         <v>141</v>
       </c>
-      <c r="I72" t="s">
-        <v>142</v>
-      </c>
-      <c r="J72">
+      <c r="J72" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" t="s">
         <v>24</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>59</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>98</v>
       </c>
-      <c r="F73" t="s">
-        <v>130</v>
-      </c>
       <c r="G73" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H73" t="s">
         <v>136</v>
@@ -3214,1150 +3820,1258 @@
         <v>136</v>
       </c>
       <c r="J73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="K73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" t="s">
         <v>24</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>60</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>97</v>
       </c>
-      <c r="F74" t="s">
-        <v>133</v>
-      </c>
       <c r="G74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H74" t="s">
+        <v>134</v>
+      </c>
+      <c r="I74" t="s">
         <v>141</v>
       </c>
-      <c r="I74" t="s">
-        <v>142</v>
-      </c>
-      <c r="J74">
+      <c r="J74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74">
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s">
         <v>24</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>61</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>97</v>
       </c>
-      <c r="F75" t="s">
-        <v>133</v>
-      </c>
       <c r="G75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H75" t="s">
+        <v>134</v>
+      </c>
+      <c r="I75" t="s">
         <v>141</v>
       </c>
-      <c r="I75" t="s">
-        <v>142</v>
-      </c>
-      <c r="J75">
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75">
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="s">
         <v>24</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>62</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>97</v>
       </c>
-      <c r="F76" t="s">
-        <v>133</v>
-      </c>
       <c r="G76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I76" t="s">
         <v>141</v>
       </c>
-      <c r="I76" t="s">
-        <v>142</v>
-      </c>
-      <c r="J76">
+      <c r="J76" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76">
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="s">
         <v>24</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>63</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>97</v>
       </c>
-      <c r="F77" t="s">
-        <v>133</v>
-      </c>
       <c r="G77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H77" t="s">
+        <v>134</v>
+      </c>
+      <c r="I77" t="s">
         <v>141</v>
       </c>
-      <c r="I77" t="s">
-        <v>142</v>
-      </c>
-      <c r="J77">
+      <c r="J77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B78" t="s">
         <v>24</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>13</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>97</v>
       </c>
-      <c r="F78" t="s">
-        <v>133</v>
-      </c>
       <c r="G78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H78" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" t="s">
         <v>141</v>
       </c>
-      <c r="I78" t="s">
-        <v>142</v>
-      </c>
-      <c r="J78">
+      <c r="J78" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78">
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B79" t="s">
         <v>24</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>64</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>97</v>
       </c>
-      <c r="F79" t="s">
-        <v>133</v>
-      </c>
       <c r="G79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H79" t="s">
+        <v>134</v>
+      </c>
+      <c r="I79" t="s">
         <v>141</v>
       </c>
-      <c r="I79" t="s">
-        <v>142</v>
-      </c>
-      <c r="J79">
+      <c r="J79" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79">
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B80" t="s">
         <v>24</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>65</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>97</v>
       </c>
-      <c r="F80" t="s">
-        <v>133</v>
-      </c>
       <c r="G80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H80" t="s">
+        <v>134</v>
+      </c>
+      <c r="I80" t="s">
         <v>141</v>
       </c>
-      <c r="I80" t="s">
-        <v>142</v>
-      </c>
-      <c r="J80">
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" t="s">
         <v>24</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>66</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>97</v>
       </c>
-      <c r="F81" t="s">
-        <v>133</v>
-      </c>
       <c r="G81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" t="s">
         <v>141</v>
       </c>
-      <c r="I81" t="s">
-        <v>142</v>
-      </c>
-      <c r="J81">
+      <c r="J81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81">
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B82" t="s">
         <v>24</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>67</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>97</v>
       </c>
-      <c r="F82" t="s">
-        <v>133</v>
-      </c>
       <c r="G82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H82" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" t="s">
         <v>141</v>
       </c>
-      <c r="I82" t="s">
-        <v>142</v>
-      </c>
-      <c r="J82">
+      <c r="J82" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>68</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>97</v>
       </c>
-      <c r="F83" t="s">
-        <v>133</v>
-      </c>
       <c r="G83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I83" t="s">
         <v>141</v>
       </c>
-      <c r="I83" t="s">
-        <v>142</v>
-      </c>
-      <c r="J83">
+      <c r="J83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83">
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s">
         <v>24</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>69</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>99</v>
       </c>
-      <c r="F84" t="s">
-        <v>130</v>
-      </c>
       <c r="G84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H84" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="I84" t="s">
         <v>143</v>
       </c>
-      <c r="J84">
+      <c r="J84" t="s">
+        <v>143</v>
+      </c>
+      <c r="K84">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B85" t="s">
         <v>24</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>70</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>97</v>
       </c>
-      <c r="F85" t="s">
-        <v>133</v>
-      </c>
       <c r="G85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H85" t="s">
+        <v>134</v>
+      </c>
+      <c r="I85" t="s">
         <v>141</v>
       </c>
-      <c r="I85" t="s">
-        <v>142</v>
-      </c>
-      <c r="J85">
+      <c r="J85" t="s">
+        <v>142</v>
+      </c>
+      <c r="K85">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" t="s">
         <v>24</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>71</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>100</v>
       </c>
-      <c r="F86" t="s">
-        <v>130</v>
-      </c>
       <c r="G86" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I86" t="s">
         <v>135</v>
       </c>
-      <c r="J86">
+      <c r="J86" t="s">
+        <v>135</v>
+      </c>
+      <c r="K86">
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
         <v>24</v>
       </c>
-      <c r="B87" t="s">
-        <v>5</v>
-      </c>
       <c r="C87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="D87" t="s">
-        <v>7</v>
-      </c>
       <c r="E87" t="s">
+        <v>7</v>
+      </c>
+      <c r="F87" t="s">
         <v>97</v>
       </c>
-      <c r="F87" t="s">
-        <v>133</v>
-      </c>
       <c r="G87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H87" t="s">
+        <v>134</v>
+      </c>
+      <c r="I87" t="s">
         <v>141</v>
       </c>
-      <c r="I87" t="s">
-        <v>142</v>
-      </c>
-      <c r="J87">
+      <c r="J87" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B88" t="s">
         <v>24</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
       <c r="C88" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
         <v>15</v>
       </c>
-      <c r="D88" t="s">
-        <v>7</v>
-      </c>
       <c r="E88" t="s">
+        <v>7</v>
+      </c>
+      <c r="F88" t="s">
         <v>97</v>
       </c>
-      <c r="F88" t="s">
-        <v>133</v>
-      </c>
       <c r="G88" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H88" t="s">
+        <v>134</v>
+      </c>
+      <c r="I88" t="s">
         <v>141</v>
       </c>
-      <c r="I88" t="s">
-        <v>142</v>
-      </c>
-      <c r="J88">
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" t="s">
         <v>24</v>
       </c>
-      <c r="B89" t="s">
-        <v>5</v>
-      </c>
       <c r="C89" t="s">
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
         <v>16</v>
       </c>
-      <c r="D89" t="s">
-        <v>7</v>
-      </c>
       <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
         <v>97</v>
       </c>
-      <c r="F89" t="s">
-        <v>133</v>
-      </c>
       <c r="G89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H89" t="s">
+        <v>134</v>
+      </c>
+      <c r="I89" t="s">
         <v>141</v>
       </c>
-      <c r="I89" t="s">
-        <v>142</v>
-      </c>
-      <c r="J89">
+      <c r="J89" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B90" t="s">
         <v>24</v>
       </c>
-      <c r="B90" t="s">
-        <v>5</v>
-      </c>
       <c r="C90" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
         <v>17</v>
       </c>
-      <c r="D90" t="s">
-        <v>7</v>
-      </c>
       <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
         <v>97</v>
       </c>
-      <c r="F90" t="s">
-        <v>133</v>
-      </c>
       <c r="G90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H90" t="s">
+        <v>134</v>
+      </c>
+      <c r="I90" t="s">
         <v>141</v>
       </c>
-      <c r="I90" t="s">
-        <v>142</v>
-      </c>
-      <c r="J90">
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B91" t="s">
         <v>72</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
       <c r="C91" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
         <v>6</v>
       </c>
-      <c r="D91" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" t="s">
+        <v>7</v>
+      </c>
+      <c r="F91" t="s">
         <v>101</v>
       </c>
-      <c r="F91" t="s">
-        <v>130</v>
-      </c>
       <c r="G91" t="s">
+        <v>130</v>
+      </c>
+      <c r="H91" t="s">
         <v>145</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>101</v>
       </c>
-      <c r="I91" t="s">
+      <c r="J91" t="s">
         <v>148</v>
       </c>
-      <c r="J91" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="K91" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" t="s">
         <v>72</v>
       </c>
-      <c r="B92" t="s">
-        <v>5</v>
-      </c>
       <c r="C92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" t="s">
-        <v>7</v>
-      </c>
       <c r="E92" t="s">
+        <v>7</v>
+      </c>
+      <c r="F92" t="s">
         <v>101</v>
       </c>
-      <c r="F92" t="s">
-        <v>130</v>
-      </c>
       <c r="G92" t="s">
+        <v>130</v>
+      </c>
+      <c r="H92" t="s">
         <v>145</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>101</v>
       </c>
-      <c r="I92" t="s">
+      <c r="J92" t="s">
         <v>148</v>
       </c>
-      <c r="J92" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="K92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" t="s">
         <v>73</v>
       </c>
-      <c r="B93" t="s">
-        <v>5</v>
-      </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
         <v>6</v>
       </c>
-      <c r="D93" t="s">
-        <v>7</v>
-      </c>
       <c r="E93" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" t="s">
         <v>102</v>
       </c>
-      <c r="F93" t="s">
-        <v>133</v>
-      </c>
       <c r="G93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H93" t="s">
+        <v>134</v>
+      </c>
+      <c r="I93" t="s">
         <v>102</v>
       </c>
-      <c r="I93" t="s">
-        <v>142</v>
-      </c>
       <c r="J93" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B94" t="s">
         <v>73</v>
       </c>
-      <c r="B94" t="s">
-        <v>5</v>
-      </c>
       <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" t="s">
-        <v>7</v>
-      </c>
       <c r="E94" t="s">
+        <v>7</v>
+      </c>
+      <c r="F94" t="s">
         <v>102</v>
       </c>
-      <c r="F94" t="s">
-        <v>133</v>
-      </c>
       <c r="G94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H94" t="s">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
         <v>102</v>
       </c>
-      <c r="I94" t="s">
-        <v>142</v>
-      </c>
       <c r="J94" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" t="s">
         <v>73</v>
       </c>
-      <c r="B95" t="s">
-        <v>5</v>
-      </c>
       <c r="C95" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="s">
-        <v>7</v>
-      </c>
       <c r="E95" t="s">
+        <v>7</v>
+      </c>
+      <c r="F95" t="s">
         <v>102</v>
       </c>
-      <c r="F95" t="s">
-        <v>133</v>
-      </c>
       <c r="G95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H95" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" t="s">
         <v>102</v>
       </c>
-      <c r="I95" t="s">
-        <v>142</v>
-      </c>
       <c r="J95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B96" t="s">
         <v>73</v>
       </c>
-      <c r="B96" t="s">
-        <v>5</v>
-      </c>
       <c r="C96" t="s">
+        <v>5</v>
+      </c>
+      <c r="D96" t="s">
         <v>12</v>
       </c>
-      <c r="D96" t="s">
-        <v>7</v>
-      </c>
       <c r="E96" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" t="s">
         <v>102</v>
       </c>
-      <c r="F96" t="s">
-        <v>133</v>
-      </c>
       <c r="G96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H96" t="s">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
         <v>102</v>
       </c>
-      <c r="I96" t="s">
-        <v>142</v>
-      </c>
       <c r="J96" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B97" t="s">
         <v>73</v>
       </c>
-      <c r="B97" t="s">
-        <v>5</v>
-      </c>
       <c r="C97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D97" t="s">
         <v>13</v>
       </c>
-      <c r="D97" t="s">
-        <v>7</v>
-      </c>
       <c r="E97" t="s">
+        <v>7</v>
+      </c>
+      <c r="F97" t="s">
         <v>102</v>
       </c>
-      <c r="F97" t="s">
-        <v>133</v>
-      </c>
       <c r="G97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H97" t="s">
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
         <v>102</v>
       </c>
-      <c r="I97" t="s">
-        <v>142</v>
-      </c>
       <c r="J97" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B98" t="s">
         <v>73</v>
       </c>
-      <c r="B98" t="s">
-        <v>5</v>
-      </c>
       <c r="C98" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" t="s">
         <v>14</v>
       </c>
-      <c r="D98" t="s">
-        <v>7</v>
-      </c>
       <c r="E98" t="s">
+        <v>7</v>
+      </c>
+      <c r="F98" t="s">
         <v>102</v>
       </c>
-      <c r="F98" t="s">
-        <v>133</v>
-      </c>
       <c r="G98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H98" t="s">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
         <v>102</v>
       </c>
-      <c r="I98" t="s">
-        <v>142</v>
-      </c>
       <c r="J98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" t="s">
         <v>74</v>
       </c>
-      <c r="B99" t="s">
-        <v>5</v>
-      </c>
       <c r="C99" t="s">
+        <v>5</v>
+      </c>
+      <c r="D99" t="s">
         <v>6</v>
       </c>
-      <c r="D99" t="s">
-        <v>7</v>
-      </c>
       <c r="E99" t="s">
+        <v>7</v>
+      </c>
+      <c r="F99" t="s">
         <v>103</v>
       </c>
-      <c r="F99" t="s">
-        <v>130</v>
-      </c>
       <c r="G99" t="s">
+        <v>130</v>
+      </c>
+      <c r="H99" t="s">
         <v>136</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>138</v>
       </c>
-      <c r="I99" t="s">
+      <c r="J99" t="s">
         <v>136</v>
       </c>
-      <c r="J99" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="K99" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B100" t="s">
         <v>74</v>
       </c>
-      <c r="B100" t="s">
-        <v>5</v>
-      </c>
       <c r="C100" t="s">
+        <v>5</v>
+      </c>
+      <c r="D100" t="s">
         <v>8</v>
       </c>
-      <c r="D100" t="s">
-        <v>7</v>
-      </c>
       <c r="E100" t="s">
+        <v>7</v>
+      </c>
+      <c r="F100" t="s">
         <v>103</v>
       </c>
-      <c r="F100" t="s">
-        <v>130</v>
-      </c>
       <c r="G100" t="s">
+        <v>130</v>
+      </c>
+      <c r="H100" t="s">
         <v>136</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>138</v>
       </c>
-      <c r="I100" t="s">
+      <c r="J100" t="s">
         <v>136</v>
       </c>
-      <c r="J100" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="K100" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" t="s">
         <v>74</v>
       </c>
-      <c r="B101" t="s">
-        <v>5</v>
-      </c>
       <c r="C101" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" t="s">
-        <v>7</v>
-      </c>
       <c r="E101" t="s">
+        <v>7</v>
+      </c>
+      <c r="F101" t="s">
         <v>103</v>
       </c>
-      <c r="F101" t="s">
-        <v>130</v>
-      </c>
       <c r="G101" t="s">
+        <v>130</v>
+      </c>
+      <c r="H101" t="s">
         <v>136</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>138</v>
       </c>
-      <c r="I101" t="s">
+      <c r="J101" t="s">
         <v>136</v>
       </c>
-      <c r="J101" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="K101" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B102" t="s">
         <v>74</v>
       </c>
-      <c r="B102" t="s">
-        <v>5</v>
-      </c>
       <c r="C102" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" t="s">
         <v>12</v>
       </c>
-      <c r="D102" t="s">
-        <v>7</v>
-      </c>
       <c r="E102" t="s">
+        <v>7</v>
+      </c>
+      <c r="F102" t="s">
         <v>104</v>
       </c>
-      <c r="F102" t="s">
-        <v>133</v>
-      </c>
       <c r="G102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="I102" t="s">
         <v>140</v>
       </c>
       <c r="J102" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+        <v>140</v>
+      </c>
+      <c r="K102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B103" t="s">
         <v>75</v>
       </c>
-      <c r="B103" t="s">
-        <v>5</v>
-      </c>
       <c r="C103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" t="s">
         <v>6</v>
       </c>
-      <c r="D103" t="s">
-        <v>7</v>
-      </c>
       <c r="E103" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" t="s">
         <v>105</v>
       </c>
-      <c r="F103" t="s">
-        <v>130</v>
-      </c>
       <c r="G103" t="s">
+        <v>130</v>
+      </c>
+      <c r="H103" t="s">
         <v>145</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>146</v>
       </c>
-      <c r="I103" t="s">
+      <c r="J103" t="s">
         <v>147</v>
       </c>
-      <c r="J103" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="K103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B104" t="s">
         <v>76</v>
       </c>
-      <c r="B104" t="s">
-        <v>5</v>
-      </c>
       <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" t="s">
         <v>6</v>
       </c>
-      <c r="D104" t="s">
-        <v>7</v>
-      </c>
       <c r="E104" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" t="s">
         <v>106</v>
       </c>
-      <c r="F104" t="s">
-        <v>130</v>
-      </c>
       <c r="G104" t="s">
+        <v>130</v>
+      </c>
+      <c r="H104" t="s">
         <v>136</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>137</v>
       </c>
-      <c r="I104" t="s">
+      <c r="J104" t="s">
         <v>136</v>
       </c>
-      <c r="J104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="K104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B105" t="s">
         <v>76</v>
       </c>
-      <c r="B105" t="s">
-        <v>5</v>
-      </c>
       <c r="C105" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
         <v>11</v>
       </c>
-      <c r="D105" t="s">
-        <v>7</v>
-      </c>
       <c r="E105" t="s">
+        <v>7</v>
+      </c>
+      <c r="F105" t="s">
         <v>111</v>
       </c>
-      <c r="F105" t="s">
-        <v>130</v>
-      </c>
       <c r="G105" t="s">
+        <v>130</v>
+      </c>
+      <c r="H105" t="s">
         <v>136</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>137</v>
       </c>
-      <c r="I105" t="s">
+      <c r="J105" t="s">
         <v>136</v>
       </c>
-      <c r="J105" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="K105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B106" t="s">
         <v>76</v>
       </c>
-      <c r="B106" t="s">
-        <v>5</v>
-      </c>
       <c r="C106" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" t="s">
         <v>25</v>
       </c>
-      <c r="D106" t="s">
-        <v>7</v>
-      </c>
       <c r="E106" t="s">
+        <v>7</v>
+      </c>
+      <c r="F106" t="s">
         <v>112</v>
       </c>
-      <c r="F106" t="s">
-        <v>130</v>
-      </c>
       <c r="G106" t="s">
+        <v>130</v>
+      </c>
+      <c r="H106" t="s">
         <v>136</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>137</v>
       </c>
-      <c r="I106" t="s">
+      <c r="J106" t="s">
         <v>136</v>
       </c>
-      <c r="J106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="K106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B107" t="s">
         <v>76</v>
       </c>
-      <c r="B107" t="s">
-        <v>5</v>
-      </c>
       <c r="C107" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" t="s">
         <v>26</v>
       </c>
-      <c r="D107" t="s">
-        <v>7</v>
-      </c>
       <c r="E107" t="s">
+        <v>7</v>
+      </c>
+      <c r="F107" t="s">
         <v>113</v>
       </c>
-      <c r="F107" t="s">
-        <v>130</v>
-      </c>
       <c r="G107" t="s">
+        <v>130</v>
+      </c>
+      <c r="H107" t="s">
         <v>136</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>137</v>
       </c>
-      <c r="I107" t="s">
+      <c r="J107" t="s">
         <v>136</v>
       </c>
-      <c r="J107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="K107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" t="s">
         <v>76</v>
       </c>
-      <c r="B108" t="s">
-        <v>5</v>
-      </c>
       <c r="C108" t="s">
+        <v>5</v>
+      </c>
+      <c r="D108" t="s">
         <v>27</v>
       </c>
-      <c r="D108" t="s">
-        <v>7</v>
-      </c>
       <c r="E108" t="s">
+        <v>7</v>
+      </c>
+      <c r="F108" t="s">
         <v>114</v>
       </c>
-      <c r="F108" t="s">
-        <v>130</v>
-      </c>
       <c r="G108" t="s">
+        <v>130</v>
+      </c>
+      <c r="H108" t="s">
         <v>136</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>137</v>
       </c>
-      <c r="I108" t="s">
+      <c r="J108" t="s">
         <v>136</v>
       </c>
-      <c r="J108" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="K108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B109" t="s">
         <v>76</v>
       </c>
-      <c r="B109" t="s">
-        <v>5</v>
-      </c>
       <c r="C109" t="s">
+        <v>5</v>
+      </c>
+      <c r="D109" t="s">
         <v>28</v>
       </c>
-      <c r="D109" t="s">
-        <v>7</v>
-      </c>
       <c r="E109" t="s">
+        <v>7</v>
+      </c>
+      <c r="F109" t="s">
         <v>115</v>
       </c>
-      <c r="F109" t="s">
-        <v>130</v>
-      </c>
       <c r="G109" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H109" t="s">
         <v>131</v>
@@ -4366,30 +5080,33 @@
         <v>131</v>
       </c>
       <c r="J109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+        <v>131</v>
+      </c>
+      <c r="K109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B110" t="s">
         <v>76</v>
       </c>
-      <c r="B110" t="s">
-        <v>5</v>
-      </c>
       <c r="C110" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" t="s">
         <v>29</v>
       </c>
-      <c r="D110" t="s">
-        <v>7</v>
-      </c>
       <c r="E110" t="s">
+        <v>7</v>
+      </c>
+      <c r="F110" t="s">
         <v>115</v>
       </c>
-      <c r="F110" t="s">
-        <v>130</v>
-      </c>
       <c r="G110" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H110" t="s">
         <v>131</v>
@@ -4398,30 +5115,33 @@
         <v>131</v>
       </c>
       <c r="J110" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+        <v>131</v>
+      </c>
+      <c r="K110" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B111" t="s">
         <v>76</v>
       </c>
-      <c r="B111" t="s">
-        <v>5</v>
-      </c>
       <c r="C111" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" t="s">
         <v>30</v>
       </c>
-      <c r="D111" t="s">
-        <v>7</v>
-      </c>
       <c r="E111" t="s">
+        <v>7</v>
+      </c>
+      <c r="F111" t="s">
         <v>116</v>
       </c>
-      <c r="F111" t="s">
-        <v>130</v>
-      </c>
       <c r="G111" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H111" t="s">
         <v>131</v>
@@ -4430,94 +5150,103 @@
         <v>131</v>
       </c>
       <c r="J111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K111" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" t="s">
         <v>76</v>
       </c>
-      <c r="B112" t="s">
-        <v>5</v>
-      </c>
       <c r="C112" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" t="s">
         <v>31</v>
       </c>
-      <c r="D112" t="s">
-        <v>7</v>
-      </c>
       <c r="E112" t="s">
+        <v>7</v>
+      </c>
+      <c r="F112" t="s">
         <v>117</v>
       </c>
-      <c r="F112" t="s">
-        <v>130</v>
-      </c>
       <c r="G112" t="s">
+        <v>130</v>
+      </c>
+      <c r="H112" t="s">
         <v>136</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>137</v>
       </c>
-      <c r="I112" t="s">
+      <c r="J112" t="s">
         <v>136</v>
       </c>
-      <c r="J112" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="K112" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" t="s">
         <v>76</v>
       </c>
-      <c r="B113" t="s">
-        <v>5</v>
-      </c>
       <c r="C113" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" t="s">
         <v>32</v>
       </c>
-      <c r="D113" t="s">
-        <v>7</v>
-      </c>
       <c r="E113" t="s">
+        <v>7</v>
+      </c>
+      <c r="F113" t="s">
         <v>118</v>
       </c>
-      <c r="F113" t="s">
-        <v>130</v>
-      </c>
       <c r="G113" t="s">
+        <v>130</v>
+      </c>
+      <c r="H113" t="s">
         <v>136</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>137</v>
       </c>
-      <c r="I113" t="s">
+      <c r="J113" t="s">
         <v>136</v>
       </c>
-      <c r="J113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="K113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B114" t="s">
         <v>76</v>
       </c>
-      <c r="B114" t="s">
-        <v>5</v>
-      </c>
       <c r="C114" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" t="s">
         <v>33</v>
       </c>
-      <c r="D114" t="s">
-        <v>7</v>
-      </c>
       <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114" t="s">
         <v>120</v>
       </c>
-      <c r="F114" t="s">
-        <v>130</v>
-      </c>
       <c r="G114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H114" t="s">
         <v>131</v>
@@ -4526,222 +5255,243 @@
         <v>131</v>
       </c>
       <c r="J114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="K114" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B115" t="s">
         <v>76</v>
       </c>
-      <c r="B115" t="s">
-        <v>5</v>
-      </c>
       <c r="C115" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" t="s">
         <v>8</v>
       </c>
-      <c r="D115" t="s">
-        <v>7</v>
-      </c>
       <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" t="s">
         <v>106</v>
       </c>
-      <c r="F115" t="s">
-        <v>130</v>
-      </c>
       <c r="G115" t="s">
+        <v>130</v>
+      </c>
+      <c r="H115" t="s">
         <v>136</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>137</v>
       </c>
-      <c r="I115" t="s">
+      <c r="J115" t="s">
         <v>136</v>
       </c>
-      <c r="J115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="K115" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B116" t="s">
         <v>76</v>
       </c>
-      <c r="B116" t="s">
-        <v>5</v>
-      </c>
       <c r="C116" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" t="s">
         <v>9</v>
       </c>
-      <c r="D116" t="s">
-        <v>7</v>
-      </c>
       <c r="E116" t="s">
+        <v>7</v>
+      </c>
+      <c r="F116" t="s">
         <v>107</v>
       </c>
-      <c r="F116" t="s">
-        <v>130</v>
-      </c>
       <c r="G116" t="s">
+        <v>130</v>
+      </c>
+      <c r="H116" t="s">
         <v>136</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>137</v>
       </c>
-      <c r="I116" t="s">
+      <c r="J116" t="s">
         <v>136</v>
       </c>
-      <c r="J116" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="K116" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B117" t="s">
         <v>76</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
       <c r="C117" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" t="s">
         <v>12</v>
       </c>
-      <c r="D117" t="s">
-        <v>7</v>
-      </c>
       <c r="E117" t="s">
+        <v>7</v>
+      </c>
+      <c r="F117" t="s">
         <v>107</v>
       </c>
-      <c r="F117" t="s">
-        <v>130</v>
-      </c>
       <c r="G117" t="s">
+        <v>130</v>
+      </c>
+      <c r="H117" t="s">
         <v>136</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>137</v>
       </c>
-      <c r="I117" t="s">
+      <c r="J117" t="s">
         <v>136</v>
       </c>
-      <c r="J117" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="K117" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B118" t="s">
         <v>76</v>
       </c>
-      <c r="B118" t="s">
-        <v>5</v>
-      </c>
       <c r="C118" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" t="s">
         <v>13</v>
       </c>
-      <c r="D118" t="s">
-        <v>7</v>
-      </c>
       <c r="E118" t="s">
+        <v>7</v>
+      </c>
+      <c r="F118" t="s">
         <v>108</v>
       </c>
-      <c r="F118" t="s">
-        <v>130</v>
-      </c>
       <c r="G118" t="s">
+        <v>130</v>
+      </c>
+      <c r="H118" t="s">
         <v>136</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>137</v>
       </c>
-      <c r="I118" t="s">
+      <c r="J118" t="s">
         <v>136</v>
       </c>
-      <c r="J118" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="K118" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B119" t="s">
         <v>76</v>
       </c>
-      <c r="B119" t="s">
-        <v>5</v>
-      </c>
       <c r="C119" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" t="s">
         <v>14</v>
       </c>
-      <c r="D119" t="s">
-        <v>7</v>
-      </c>
       <c r="E119" t="s">
+        <v>7</v>
+      </c>
+      <c r="F119" t="s">
         <v>109</v>
       </c>
-      <c r="F119" t="s">
-        <v>130</v>
-      </c>
       <c r="G119" t="s">
+        <v>130</v>
+      </c>
+      <c r="H119" t="s">
         <v>136</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>138</v>
       </c>
-      <c r="I119" t="s">
+      <c r="J119" t="s">
         <v>136</v>
       </c>
-      <c r="J119" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="K119" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B120" t="s">
         <v>76</v>
       </c>
-      <c r="B120" t="s">
-        <v>5</v>
-      </c>
       <c r="C120" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" t="s">
         <v>15</v>
       </c>
-      <c r="D120" t="s">
-        <v>7</v>
-      </c>
       <c r="E120" t="s">
+        <v>7</v>
+      </c>
+      <c r="F120" t="s">
         <v>109</v>
       </c>
-      <c r="F120" t="s">
-        <v>130</v>
-      </c>
       <c r="G120" t="s">
+        <v>130</v>
+      </c>
+      <c r="H120" t="s">
         <v>136</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>138</v>
       </c>
-      <c r="I120" t="s">
+      <c r="J120" t="s">
         <v>136</v>
       </c>
-      <c r="J120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="K120" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
         <v>76</v>
       </c>
-      <c r="B121" t="s">
-        <v>5</v>
-      </c>
       <c r="C121" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" t="s">
         <v>16</v>
       </c>
-      <c r="D121" t="s">
-        <v>7</v>
-      </c>
       <c r="E121" t="s">
+        <v>7</v>
+      </c>
+      <c r="F121" t="s">
         <v>110</v>
       </c>
-      <c r="F121" t="s">
-        <v>130</v>
-      </c>
       <c r="G121" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H121" t="s">
         <v>131</v>
@@ -4750,126 +5500,138 @@
         <v>131</v>
       </c>
       <c r="J121" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+        <v>131</v>
+      </c>
+      <c r="K121" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B122" t="s">
         <v>76</v>
       </c>
-      <c r="B122" t="s">
-        <v>5</v>
-      </c>
       <c r="C122" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" t="s">
         <v>17</v>
       </c>
-      <c r="D122" t="s">
-        <v>7</v>
-      </c>
       <c r="E122" t="s">
+        <v>7</v>
+      </c>
+      <c r="F122" t="s">
         <v>119</v>
       </c>
-      <c r="F122" t="s">
-        <v>130</v>
-      </c>
       <c r="G122" t="s">
+        <v>130</v>
+      </c>
+      <c r="H122" t="s">
         <v>136</v>
       </c>
-      <c r="H122" t="s">
+      <c r="I122" t="s">
         <v>137</v>
       </c>
-      <c r="I122" t="s">
+      <c r="J122" t="s">
         <v>136</v>
       </c>
-      <c r="J122" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="K122" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B123" t="s">
         <v>77</v>
       </c>
-      <c r="B123" t="s">
-        <v>5</v>
-      </c>
       <c r="C123" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" t="s">
         <v>6</v>
       </c>
-      <c r="D123" t="s">
-        <v>7</v>
-      </c>
       <c r="E123" t="s">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
         <v>121</v>
       </c>
-      <c r="F123" t="s">
-        <v>130</v>
-      </c>
       <c r="G123" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H123" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I123" t="s">
         <v>139</v>
       </c>
       <c r="J123" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+        <v>139</v>
+      </c>
+      <c r="K123" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" t="s">
         <v>77</v>
       </c>
-      <c r="B124" t="s">
-        <v>5</v>
-      </c>
       <c r="C124" t="s">
+        <v>5</v>
+      </c>
+      <c r="D124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" t="s">
-        <v>7</v>
-      </c>
       <c r="E124" t="s">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
         <v>121</v>
       </c>
-      <c r="F124" t="s">
-        <v>130</v>
-      </c>
       <c r="G124" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H124" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="I124" t="s">
         <v>139</v>
       </c>
       <c r="J124" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+        <v>139</v>
+      </c>
+      <c r="K124" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
         <v>78</v>
       </c>
-      <c r="B125" t="s">
-        <v>5</v>
-      </c>
       <c r="C125" t="s">
+        <v>5</v>
+      </c>
+      <c r="D125" t="s">
         <v>6</v>
       </c>
-      <c r="D125" t="s">
-        <v>7</v>
-      </c>
       <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
         <v>122</v>
       </c>
-      <c r="F125" t="s">
-        <v>130</v>
-      </c>
       <c r="G125" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H125" t="s">
         <v>131</v>
@@ -4878,30 +5640,33 @@
         <v>131</v>
       </c>
       <c r="J125" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+        <v>131</v>
+      </c>
+      <c r="K125" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B126" t="s">
         <v>78</v>
       </c>
-      <c r="B126" t="s">
-        <v>5</v>
-      </c>
       <c r="C126" t="s">
+        <v>5</v>
+      </c>
+      <c r="D126" t="s">
         <v>8</v>
       </c>
-      <c r="D126" t="s">
-        <v>7</v>
-      </c>
       <c r="E126" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
         <v>122</v>
       </c>
-      <c r="F126" t="s">
-        <v>130</v>
-      </c>
       <c r="G126" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H126" t="s">
         <v>131</v>
@@ -4910,30 +5675,33 @@
         <v>131</v>
       </c>
       <c r="J126" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+      <c r="K126" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B127" t="s">
         <v>78</v>
       </c>
-      <c r="B127" t="s">
-        <v>5</v>
-      </c>
       <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" t="s">
-        <v>7</v>
-      </c>
       <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
         <v>122</v>
       </c>
-      <c r="F127" t="s">
-        <v>130</v>
-      </c>
       <c r="G127" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H127" t="s">
         <v>131</v>
@@ -4942,102 +5710,114 @@
         <v>131</v>
       </c>
       <c r="J127" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+        <v>131</v>
+      </c>
+      <c r="K127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B128" t="s">
         <v>79</v>
       </c>
-      <c r="B128" t="s">
-        <v>5</v>
-      </c>
       <c r="C128" t="s">
+        <v>5</v>
+      </c>
+      <c r="D128" t="s">
         <v>6</v>
       </c>
-      <c r="D128" t="s">
-        <v>7</v>
-      </c>
       <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
         <v>123</v>
       </c>
-      <c r="F128" t="s">
-        <v>133</v>
-      </c>
       <c r="G128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H128" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I128" t="s">
         <v>135</v>
       </c>
       <c r="J128" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="K128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B129" t="s">
         <v>79</v>
       </c>
-      <c r="B129" t="s">
-        <v>5</v>
-      </c>
       <c r="C129" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" t="s">
         <v>8</v>
       </c>
-      <c r="D129" t="s">
-        <v>7</v>
-      </c>
       <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
         <v>124</v>
       </c>
-      <c r="F129" t="s">
-        <v>130</v>
-      </c>
       <c r="G129" t="s">
+        <v>130</v>
+      </c>
+      <c r="H129" t="s">
         <v>145</v>
       </c>
-      <c r="H129" t="s">
+      <c r="I129" t="s">
         <v>146</v>
       </c>
-      <c r="I129" t="s">
+      <c r="J129" t="s">
         <v>147</v>
       </c>
-      <c r="J129" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="K129" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B130" t="s">
         <v>79</v>
       </c>
-      <c r="B130" t="s">
-        <v>5</v>
-      </c>
       <c r="C130" t="s">
+        <v>5</v>
+      </c>
+      <c r="D130" t="s">
         <v>9</v>
       </c>
-      <c r="D130" t="s">
-        <v>7</v>
-      </c>
       <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
         <v>124</v>
       </c>
-      <c r="F130" t="s">
-        <v>130</v>
-      </c>
       <c r="G130" t="s">
+        <v>130</v>
+      </c>
+      <c r="H130" t="s">
         <v>145</v>
       </c>
-      <c r="H130" t="s">
+      <c r="I130" t="s">
         <v>146</v>
       </c>
-      <c r="I130" t="s">
+      <c r="J130" t="s">
         <v>147</v>
       </c>
-      <c r="J130" t="s">
+      <c r="K130" t="s">
         <v>132</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8572AA0-16AB-2040-A3E6-019A395F1435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8899CD82-D296-154C-A1FD-73BCBEADC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="281">
   <si>
     <t>DOI</t>
   </si>
@@ -860,6 +860,9 @@
   </si>
   <si>
     <t>10.1038:s41556-023-01264-z_zero_fig3</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1262,13 +1265,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="109" workbookViewId="0">
-      <selection activeCell="A115" sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F75" zoomScale="165" workbookViewId="0">
+      <selection activeCell="I92" sqref="I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="50" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
@@ -4447,10 +4452,10 @@
         <v>145</v>
       </c>
       <c r="I91" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="J91" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="K91" t="s">
         <v>132</v>
@@ -4482,10 +4487,10 @@
         <v>145</v>
       </c>
       <c r="I92" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="J92" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="K92" t="s">
         <v>132</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8899CD82-D296-154C-A1FD-73BCBEADC641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC56BF2-4A41-2E4D-88A8-C51F667B81B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1265,8 +1265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F75" zoomScale="165" workbookViewId="0">
-      <selection activeCell="I92" sqref="I92"/>
+    <sheetView tabSelected="1" topLeftCell="F103" zoomScale="165" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129:J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1792,10 +1792,10 @@
         <v>145</v>
       </c>
       <c r="I15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J15" t="s">
         <v>149</v>
-      </c>
-      <c r="J15" t="s">
-        <v>147</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1897,10 +1897,10 @@
         <v>145</v>
       </c>
       <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" t="s">
         <v>149</v>
-      </c>
-      <c r="J18" t="s">
-        <v>147</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -2107,10 +2107,10 @@
         <v>145</v>
       </c>
       <c r="I24" t="s">
+        <v>147</v>
+      </c>
+      <c r="J24" t="s">
         <v>146</v>
-      </c>
-      <c r="J24" t="s">
-        <v>147</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2142,10 +2142,10 @@
         <v>145</v>
       </c>
       <c r="I25" t="s">
+        <v>147</v>
+      </c>
+      <c r="J25" t="s">
         <v>146</v>
-      </c>
-      <c r="J25" t="s">
-        <v>147</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -4872,10 +4872,10 @@
         <v>145</v>
       </c>
       <c r="I103" t="s">
+        <v>147</v>
+      </c>
+      <c r="J103" t="s">
         <v>146</v>
-      </c>
-      <c r="J103" t="s">
-        <v>147</v>
       </c>
       <c r="K103" t="s">
         <v>132</v>
@@ -5782,10 +5782,10 @@
         <v>145</v>
       </c>
       <c r="I129" t="s">
+        <v>147</v>
+      </c>
+      <c r="J129" t="s">
         <v>146</v>
-      </c>
-      <c r="J129" t="s">
-        <v>147</v>
       </c>
       <c r="K129" t="s">
         <v>132</v>
@@ -5817,10 +5817,10 @@
         <v>145</v>
       </c>
       <c r="I130" t="s">
+        <v>147</v>
+      </c>
+      <c r="J130" t="s">
         <v>146</v>
-      </c>
-      <c r="J130" t="s">
-        <v>147</v>
       </c>
       <c r="K130" t="s">
         <v>132</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC56BF2-4A41-2E4D-88A8-C51F667B81B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1A963-7BD5-4A40-9899-9E65B3509932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="278">
   <si>
     <t>DOI</t>
   </si>
@@ -445,15 +445,9 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>RPKM</t>
-  </si>
-  <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Relative expression</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -464,9 +458,6 @@
   </si>
   <si>
     <t>Relative luminescence</t>
-  </si>
-  <si>
-    <t>Signal</t>
   </si>
   <si>
     <t>Bioluminescence</t>
@@ -1265,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F103" zoomScale="165" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129:J130"/>
+    <sheetView tabSelected="1" topLeftCell="F74" zoomScale="165" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1313,7 +1304,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1348,7 +1339,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1383,7 +1374,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1418,7 +1409,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1453,7 +1444,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1488,7 +1479,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1523,7 +1514,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1558,7 +1549,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1593,7 +1584,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1628,7 +1619,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1663,7 +1654,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1698,7 +1689,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1733,7 +1724,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1768,7 +1759,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1789,13 +1780,13 @@
         <v>130</v>
       </c>
       <c r="H15" t="s">
+        <v>143</v>
+      </c>
+      <c r="I15" t="s">
         <v>145</v>
       </c>
-      <c r="I15" t="s">
-        <v>147</v>
-      </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1803,7 +1794,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1838,7 +1829,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1873,7 +1864,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1894,13 +1885,13 @@
         <v>130</v>
       </c>
       <c r="H18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" t="s">
         <v>145</v>
       </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
       <c r="J18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1908,7 +1899,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1932,10 +1923,10 @@
         <v>131</v>
       </c>
       <c r="I19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J19" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
         <v>132</v>
@@ -1943,7 +1934,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1967,10 +1958,10 @@
         <v>131</v>
       </c>
       <c r="I20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J20" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s">
         <v>132</v>
@@ -1978,7 +1969,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -2002,10 +1993,10 @@
         <v>131</v>
       </c>
       <c r="I21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K21" t="s">
         <v>132</v>
@@ -2013,7 +2004,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2037,10 +2028,10 @@
         <v>134</v>
       </c>
       <c r="I22" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="J22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" t="s">
         <v>132</v>
@@ -2048,7 +2039,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2072,10 +2063,10 @@
         <v>134</v>
       </c>
       <c r="I23" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="J23" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
         <v>132</v>
@@ -2083,7 +2074,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2104,13 +2095,13 @@
         <v>130</v>
       </c>
       <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
         <v>145</v>
       </c>
-      <c r="I24" t="s">
-        <v>147</v>
-      </c>
       <c r="J24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2118,7 +2109,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2139,13 +2130,13 @@
         <v>130</v>
       </c>
       <c r="H25" t="s">
+        <v>143</v>
+      </c>
+      <c r="I25" t="s">
         <v>145</v>
       </c>
-      <c r="I25" t="s">
-        <v>147</v>
-      </c>
       <c r="J25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2153,7 +2144,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2188,7 +2179,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2223,7 +2214,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2258,7 +2249,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2293,7 +2284,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2328,7 +2319,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2363,7 +2354,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2398,7 +2389,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2433,7 +2424,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2460,7 +2451,7 @@
         <v>141</v>
       </c>
       <c r="J34" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2468,7 +2459,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2495,7 +2486,7 @@
         <v>141</v>
       </c>
       <c r="J35" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2503,7 +2494,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -2530,7 +2521,7 @@
         <v>141</v>
       </c>
       <c r="J36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2538,7 +2529,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -2565,7 +2556,7 @@
         <v>141</v>
       </c>
       <c r="J37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2573,7 +2564,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2600,7 +2591,7 @@
         <v>141</v>
       </c>
       <c r="J38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2608,7 +2599,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2635,7 +2626,7 @@
         <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2643,7 +2634,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2670,7 +2661,7 @@
         <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2678,7 +2669,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2705,7 +2696,7 @@
         <v>141</v>
       </c>
       <c r="J41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2713,7 +2704,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2740,7 +2731,7 @@
         <v>141</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -2748,7 +2739,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2775,7 +2766,7 @@
         <v>141</v>
       </c>
       <c r="J43" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -2783,7 +2774,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2810,7 +2801,7 @@
         <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2818,7 +2809,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2845,7 +2836,7 @@
         <v>141</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2853,7 +2844,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -2880,7 +2871,7 @@
         <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2888,7 +2879,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -2915,7 +2906,7 @@
         <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2923,7 +2914,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -2950,7 +2941,7 @@
         <v>141</v>
       </c>
       <c r="J48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2958,7 +2949,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -2985,7 +2976,7 @@
         <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2993,7 +2984,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -3020,7 +3011,7 @@
         <v>141</v>
       </c>
       <c r="J50" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3028,7 +3019,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -3055,7 +3046,7 @@
         <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -3063,7 +3054,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -3090,7 +3081,7 @@
         <v>141</v>
       </c>
       <c r="J52" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -3098,7 +3089,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -3125,7 +3116,7 @@
         <v>141</v>
       </c>
       <c r="J53" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -3133,7 +3124,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -3160,7 +3151,7 @@
         <v>141</v>
       </c>
       <c r="J54" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -3168,7 +3159,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -3195,7 +3186,7 @@
         <v>141</v>
       </c>
       <c r="J55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -3203,7 +3194,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -3230,7 +3221,7 @@
         <v>141</v>
       </c>
       <c r="J56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -3238,7 +3229,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -3265,7 +3256,7 @@
         <v>141</v>
       </c>
       <c r="J57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -3273,7 +3264,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -3300,7 +3291,7 @@
         <v>141</v>
       </c>
       <c r="J58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -3308,7 +3299,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -3335,7 +3326,7 @@
         <v>141</v>
       </c>
       <c r="J59" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -3343,7 +3334,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -3370,7 +3361,7 @@
         <v>141</v>
       </c>
       <c r="J60" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -3378,7 +3369,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -3405,7 +3396,7 @@
         <v>141</v>
       </c>
       <c r="J61" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -3413,7 +3404,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -3440,7 +3431,7 @@
         <v>141</v>
       </c>
       <c r="J62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -3448,7 +3439,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -3475,7 +3466,7 @@
         <v>141</v>
       </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -3483,7 +3474,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
@@ -3510,7 +3501,7 @@
         <v>141</v>
       </c>
       <c r="J64" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -3518,7 +3509,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -3545,7 +3536,7 @@
         <v>141</v>
       </c>
       <c r="J65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -3553,7 +3544,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -3580,7 +3571,7 @@
         <v>141</v>
       </c>
       <c r="J66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -3588,7 +3579,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -3615,7 +3606,7 @@
         <v>141</v>
       </c>
       <c r="J67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -3623,7 +3614,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -3650,7 +3641,7 @@
         <v>141</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -3658,7 +3649,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -3685,7 +3676,7 @@
         <v>141</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3693,7 +3684,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
@@ -3720,7 +3711,7 @@
         <v>141</v>
       </c>
       <c r="J70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -3728,7 +3719,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -3755,7 +3746,7 @@
         <v>141</v>
       </c>
       <c r="J71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -3763,7 +3754,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
@@ -3790,7 +3781,7 @@
         <v>141</v>
       </c>
       <c r="J72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3798,7 +3789,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
@@ -3833,7 +3824,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -3860,7 +3851,7 @@
         <v>141</v>
       </c>
       <c r="J74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3868,7 +3859,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
@@ -3895,7 +3886,7 @@
         <v>141</v>
       </c>
       <c r="J75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3903,7 +3894,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
@@ -3930,7 +3921,7 @@
         <v>141</v>
       </c>
       <c r="J76" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3938,7 +3929,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -3965,7 +3956,7 @@
         <v>141</v>
       </c>
       <c r="J77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3973,7 +3964,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -4000,7 +3991,7 @@
         <v>141</v>
       </c>
       <c r="J78" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -4008,7 +3999,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -4035,7 +4026,7 @@
         <v>141</v>
       </c>
       <c r="J79" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -4043,7 +4034,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
@@ -4070,7 +4061,7 @@
         <v>141</v>
       </c>
       <c r="J80" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -4078,7 +4069,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -4105,7 +4096,7 @@
         <v>141</v>
       </c>
       <c r="J81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -4113,7 +4104,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -4140,7 +4131,7 @@
         <v>141</v>
       </c>
       <c r="J82" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -4148,7 +4139,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -4175,7 +4166,7 @@
         <v>141</v>
       </c>
       <c r="J83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -4183,7 +4174,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -4207,10 +4198,10 @@
         <v>131</v>
       </c>
       <c r="I84" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J84" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4218,7 +4209,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -4245,7 +4236,7 @@
         <v>141</v>
       </c>
       <c r="J85" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -4253,7 +4244,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
@@ -4271,10 +4262,10 @@
         <v>100</v>
       </c>
       <c r="G86" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H86" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I86" t="s">
         <v>135</v>
@@ -4288,7 +4279,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -4315,7 +4306,7 @@
         <v>141</v>
       </c>
       <c r="J87" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4323,7 +4314,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -4350,7 +4341,7 @@
         <v>141</v>
       </c>
       <c r="J88" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -4358,7 +4349,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
@@ -4385,7 +4376,7 @@
         <v>141</v>
       </c>
       <c r="J89" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -4393,7 +4384,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
@@ -4420,7 +4411,7 @@
         <v>141</v>
       </c>
       <c r="J90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4428,7 +4419,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
@@ -4449,13 +4440,13 @@
         <v>130</v>
       </c>
       <c r="H91" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I91" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="J91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K91" t="s">
         <v>132</v>
@@ -4463,7 +4454,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B92" t="s">
         <v>72</v>
@@ -4484,13 +4475,13 @@
         <v>130</v>
       </c>
       <c r="H92" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I92" t="s">
-        <v>148</v>
+        <v>277</v>
       </c>
       <c r="J92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K92" t="s">
         <v>132</v>
@@ -4498,7 +4489,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B93" t="s">
         <v>73</v>
@@ -4522,7 +4513,7 @@
         <v>134</v>
       </c>
       <c r="I93" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J93" t="s">
         <v>142</v>
@@ -4533,7 +4524,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
@@ -4557,7 +4548,7 @@
         <v>134</v>
       </c>
       <c r="I94" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J94" t="s">
         <v>142</v>
@@ -4568,7 +4559,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -4592,7 +4583,7 @@
         <v>134</v>
       </c>
       <c r="I95" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J95" t="s">
         <v>142</v>
@@ -4603,7 +4594,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B96" t="s">
         <v>73</v>
@@ -4627,7 +4618,7 @@
         <v>134</v>
       </c>
       <c r="I96" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J96" t="s">
         <v>142</v>
@@ -4638,7 +4629,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B97" t="s">
         <v>73</v>
@@ -4662,7 +4653,7 @@
         <v>134</v>
       </c>
       <c r="I97" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J97" t="s">
         <v>142</v>
@@ -4673,7 +4664,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B98" t="s">
         <v>73</v>
@@ -4697,7 +4688,7 @@
         <v>134</v>
       </c>
       <c r="I98" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="J98" t="s">
         <v>142</v>
@@ -4708,7 +4699,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
@@ -4743,7 +4734,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -4778,7 +4769,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B101" t="s">
         <v>74</v>
@@ -4813,7 +4804,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B102" t="s">
         <v>74</v>
@@ -4848,7 +4839,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -4869,13 +4860,13 @@
         <v>130</v>
       </c>
       <c r="H103" t="s">
+        <v>143</v>
+      </c>
+      <c r="I103" t="s">
         <v>145</v>
       </c>
-      <c r="I103" t="s">
-        <v>147</v>
-      </c>
       <c r="J103" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K103" t="s">
         <v>132</v>
@@ -4883,7 +4874,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B104" t="s">
         <v>76</v>
@@ -4918,7 +4909,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -4953,7 +4944,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -4988,7 +4979,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
@@ -5023,7 +5014,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B108" t="s">
         <v>76</v>
@@ -5058,7 +5049,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
@@ -5093,7 +5084,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B110" t="s">
         <v>76</v>
@@ -5128,7 +5119,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
@@ -5163,7 +5154,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B112" t="s">
         <v>76</v>
@@ -5198,7 +5189,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B113" t="s">
         <v>76</v>
@@ -5233,7 +5224,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B114" t="s">
         <v>76</v>
@@ -5268,7 +5259,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B115" t="s">
         <v>76</v>
@@ -5303,7 +5294,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B116" t="s">
         <v>76</v>
@@ -5338,7 +5329,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B117" t="s">
         <v>76</v>
@@ -5373,7 +5364,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B118" t="s">
         <v>76</v>
@@ -5408,7 +5399,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B119" t="s">
         <v>76</v>
@@ -5443,7 +5434,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B120" t="s">
         <v>76</v>
@@ -5478,7 +5469,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B121" t="s">
         <v>76</v>
@@ -5513,7 +5504,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B122" t="s">
         <v>76</v>
@@ -5548,7 +5539,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -5583,7 +5574,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -5618,7 +5609,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B125" t="s">
         <v>78</v>
@@ -5653,7 +5644,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B126" t="s">
         <v>78</v>
@@ -5688,7 +5679,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B127" t="s">
         <v>78</v>
@@ -5723,7 +5714,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B128" t="s">
         <v>79</v>
@@ -5758,7 +5749,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B129" t="s">
         <v>79</v>
@@ -5779,13 +5770,13 @@
         <v>130</v>
       </c>
       <c r="H129" t="s">
+        <v>143</v>
+      </c>
+      <c r="I129" t="s">
         <v>145</v>
       </c>
-      <c r="I129" t="s">
-        <v>147</v>
-      </c>
       <c r="J129" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K129" t="s">
         <v>132</v>
@@ -5793,7 +5784,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B130" t="s">
         <v>79</v>
@@ -5814,13 +5805,13 @@
         <v>130</v>
       </c>
       <c r="H130" t="s">
+        <v>143</v>
+      </c>
+      <c r="I130" t="s">
         <v>145</v>
       </c>
-      <c r="I130" t="s">
-        <v>147</v>
-      </c>
       <c r="J130" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K130" t="s">
         <v>132</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A1A963-7BD5-4A40-9899-9E65B3509932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB8219-5550-C645-ACC8-463853CA5018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="279">
   <si>
     <t>DOI</t>
   </si>
@@ -854,6 +854,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Titer</t>
   </si>
 </sst>
 </file>
@@ -1256,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F74" zoomScale="165" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91"/>
+    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="139" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2092,16 +2095,16 @@
         <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="J24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2127,16 +2130,16 @@
         <v>92</v>
       </c>
       <c r="G25" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H25" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I25" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K25">
         <v>10</v>

--- a/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_cell_biol/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_cell_biol/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCB8219-5550-C645-ACC8-463853CA5018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1F82A8-E669-DC4F-9FDC-4906ACC38757}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,9 +262,6 @@
     <t>10.1038:s41556-023-01264-z</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>LPAR4 mRNA (log2 FC) normalized to control</t>
   </si>
   <si>
@@ -403,12 +400,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -857,6 +848,15 @@
   </si>
   <si>
     <t>Titer</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
+  </si>
+  <si>
+    <t>Measurand</t>
   </si>
 </sst>
 </file>
@@ -1259,8 +1259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G5" zoomScale="139" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25:K25"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="139" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1272,7 +1272,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1287,27 +1287,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>126</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1322,27 +1322,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1357,27 +1357,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1392,27 +1392,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1427,27 +1427,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -1462,27 +1462,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1497,27 +1497,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1532,27 +1532,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -1567,27 +1567,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1602,27 +1602,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1637,27 +1637,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
@@ -1672,27 +1672,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1707,27 +1707,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B14" t="s">
         <v>10</v>
@@ -1742,27 +1742,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1777,19 +1777,19 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
         <v>143</v>
-      </c>
-      <c r="I15" t="s">
-        <v>145</v>
-      </c>
-      <c r="J15" t="s">
-        <v>146</v>
       </c>
       <c r="K15">
         <v>10</v>
@@ -1797,7 +1797,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
@@ -1812,27 +1812,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1847,27 +1847,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1882,19 +1882,19 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H18" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" t="s">
         <v>143</v>
-      </c>
-      <c r="I18" t="s">
-        <v>145</v>
-      </c>
-      <c r="J18" t="s">
-        <v>146</v>
       </c>
       <c r="K18">
         <v>10</v>
@@ -1902,7 +1902,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
@@ -1917,27 +1917,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1952,27 +1952,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B21" t="s">
         <v>19</v>
@@ -1987,27 +1987,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2022,27 +2022,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H22" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -2057,27 +2057,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -2092,19 +2092,19 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H24" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I24" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K24">
         <v>10</v>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
         <v>21</v>
@@ -2127,19 +2127,19 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G25" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H25" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J25" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K25">
         <v>10</v>
@@ -2147,7 +2147,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B26" t="s">
         <v>22</v>
@@ -2162,27 +2162,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K26" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
         <v>22</v>
@@ -2197,27 +2197,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" t="s">
         <v>22</v>
@@ -2232,27 +2232,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J28" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
@@ -2267,27 +2267,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J29" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
@@ -2302,27 +2302,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H30" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J30" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
@@ -2337,27 +2337,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>22</v>
@@ -2372,27 +2372,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
@@ -2407,27 +2407,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J33" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B34" t="s">
         <v>24</v>
@@ -2442,19 +2442,19 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J34" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K34">
         <v>2</v>
@@ -2462,7 +2462,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>24</v>
@@ -2477,19 +2477,19 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H35" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J35" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2497,7 +2497,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B36" t="s">
         <v>24</v>
@@ -2512,19 +2512,19 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J36" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K36">
         <v>2</v>
@@ -2532,7 +2532,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B37" t="s">
         <v>24</v>
@@ -2547,19 +2547,19 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J37" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K37">
         <v>2</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B38" t="s">
         <v>24</v>
@@ -2582,19 +2582,19 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H38" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J38" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K38">
         <v>2</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B39" t="s">
         <v>24</v>
@@ -2617,19 +2617,19 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H39" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J39" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K39">
         <v>2</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>24</v>
@@ -2652,19 +2652,19 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H40" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J40" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K40">
         <v>2</v>
@@ -2672,7 +2672,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B41" t="s">
         <v>24</v>
@@ -2687,19 +2687,19 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H41" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J41" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K41">
         <v>2</v>
@@ -2707,7 +2707,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
         <v>24</v>
@@ -2722,19 +2722,19 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H42" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J42" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B43" t="s">
         <v>24</v>
@@ -2757,19 +2757,19 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -2777,7 +2777,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B44" t="s">
         <v>24</v>
@@ -2792,19 +2792,19 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J44" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K44">
         <v>2</v>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B45" t="s">
         <v>24</v>
@@ -2827,19 +2827,19 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H45" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K45">
         <v>2</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B46" t="s">
         <v>24</v>
@@ -2862,19 +2862,19 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K46">
         <v>2</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B47" t="s">
         <v>24</v>
@@ -2897,19 +2897,19 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J47" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K47">
         <v>2</v>
@@ -2917,7 +2917,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B48" t="s">
         <v>24</v>
@@ -2932,19 +2932,19 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H48" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K48">
         <v>2</v>
@@ -2952,7 +2952,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B49" t="s">
         <v>24</v>
@@ -2967,19 +2967,19 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K49">
         <v>2</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B50" t="s">
         <v>24</v>
@@ -3002,19 +3002,19 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J50" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K50">
         <v>2</v>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B51" t="s">
         <v>24</v>
@@ -3037,19 +3037,19 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H51" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J51" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K51">
         <v>2</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B52" t="s">
         <v>24</v>
@@ -3072,19 +3072,19 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J52" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
         <v>24</v>
@@ -3107,19 +3107,19 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H53" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J53" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K53">
         <v>2</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
         <v>24</v>
@@ -3142,19 +3142,19 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H54" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J54" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K54">
         <v>2</v>
@@ -3162,7 +3162,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B55" t="s">
         <v>24</v>
@@ -3177,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J55" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K55">
         <v>2</v>
@@ -3197,7 +3197,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B56" t="s">
         <v>24</v>
@@ -3212,19 +3212,19 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G56" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H56" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K56">
         <v>2</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B57" t="s">
         <v>24</v>
@@ -3247,19 +3247,19 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G57" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H57" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K57">
         <v>2</v>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B58" t="s">
         <v>24</v>
@@ -3282,19 +3282,19 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G58" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K58">
         <v>2</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B59" t="s">
         <v>24</v>
@@ -3317,19 +3317,19 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H59" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K59">
         <v>2</v>
@@ -3337,7 +3337,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B60" t="s">
         <v>24</v>
@@ -3352,19 +3352,19 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H60" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K60">
         <v>2</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B61" t="s">
         <v>24</v>
@@ -3387,19 +3387,19 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H61" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K61">
         <v>2</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B62" t="s">
         <v>24</v>
@@ -3422,19 +3422,19 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G62" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H62" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -3442,7 +3442,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B63" t="s">
         <v>24</v>
@@ -3457,19 +3457,19 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H63" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -3477,7 +3477,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B64" t="s">
         <v>24</v>
@@ -3492,19 +3492,19 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G64" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H64" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J64" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K64">
         <v>2</v>
@@ -3512,7 +3512,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>24</v>
@@ -3527,19 +3527,19 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G65" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H65" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J65" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K65">
         <v>2</v>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B66" t="s">
         <v>24</v>
@@ -3562,19 +3562,19 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H66" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J66" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K66">
         <v>2</v>
@@ -3582,7 +3582,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>24</v>
@@ -3597,19 +3597,19 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G67" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H67" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K67">
         <v>2</v>
@@ -3617,7 +3617,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -3632,19 +3632,19 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H68" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J68" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K68">
         <v>2</v>
@@ -3652,7 +3652,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -3667,19 +3667,19 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J69" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K69">
         <v>2</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B70" t="s">
         <v>24</v>
@@ -3702,19 +3702,19 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H70" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J70" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K70">
         <v>2</v>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
         <v>24</v>
@@ -3737,19 +3737,19 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G71" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H71" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J71" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K71">
         <v>2</v>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
         <v>24</v>
@@ -3772,19 +3772,19 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G72" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H72" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J72" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K72">
         <v>2</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B73" t="s">
         <v>24</v>
@@ -3807,27 +3807,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G73" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="J73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B74" t="s">
         <v>24</v>
@@ -3842,19 +3842,19 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G74" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H74" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K74">
         <v>2</v>
@@ -3862,7 +3862,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B75" t="s">
         <v>24</v>
@@ -3877,19 +3877,19 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G75" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H75" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J75" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K75">
         <v>2</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B76" t="s">
         <v>24</v>
@@ -3912,19 +3912,19 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J76" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K76">
         <v>2</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B77" t="s">
         <v>24</v>
@@ -3947,19 +3947,19 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G77" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H77" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J77" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K77">
         <v>2</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B78" t="s">
         <v>24</v>
@@ -3982,19 +3982,19 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G78" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H78" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J78" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K78">
         <v>2</v>
@@ -4002,7 +4002,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B79" t="s">
         <v>24</v>
@@ -4017,19 +4017,19 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G79" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H79" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J79" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K79">
         <v>2</v>
@@ -4037,7 +4037,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B80" t="s">
         <v>24</v>
@@ -4052,19 +4052,19 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G80" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K80">
         <v>2</v>
@@ -4072,7 +4072,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B81" t="s">
         <v>24</v>
@@ -4087,19 +4087,19 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G81" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H81" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J81" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K81">
         <v>2</v>
@@ -4107,7 +4107,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B82" t="s">
         <v>24</v>
@@ -4122,19 +4122,19 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H82" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J82" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K82">
         <v>2</v>
@@ -4142,7 +4142,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
         <v>24</v>
@@ -4157,19 +4157,19 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K83">
         <v>2</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
         <v>24</v>
@@ -4192,19 +4192,19 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G84" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J84" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K84">
         <v>10</v>
@@ -4212,7 +4212,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
         <v>24</v>
@@ -4227,19 +4227,19 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K85">
         <v>2</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B86" t="s">
         <v>24</v>
@@ -4262,19 +4262,19 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K86">
         <v>10</v>
@@ -4282,7 +4282,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
         <v>24</v>
@@ -4297,19 +4297,19 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J87" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K87">
         <v>2</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B88" t="s">
         <v>24</v>
@@ -4332,19 +4332,19 @@
         <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H88" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J88" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K88">
         <v>2</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B89" t="s">
         <v>24</v>
@@ -4367,19 +4367,19 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J89" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K89">
         <v>2</v>
@@ -4387,7 +4387,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B90" t="s">
         <v>24</v>
@@ -4402,19 +4402,19 @@
         <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H90" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J90" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B91" t="s">
         <v>72</v>
@@ -4437,27 +4437,27 @@
         <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G91" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H91" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K91" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B92" t="s">
         <v>72</v>
@@ -4472,27 +4472,27 @@
         <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G92" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K92" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B93" t="s">
         <v>73</v>
@@ -4507,27 +4507,27 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J93" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K93" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B94" t="s">
         <v>73</v>
@@ -4542,27 +4542,27 @@
         <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J94" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K94" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B95" t="s">
         <v>73</v>
@@ -4577,27 +4577,27 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J95" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B96" t="s">
         <v>73</v>
@@ -4612,27 +4612,27 @@
         <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I96" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J96" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B97" t="s">
         <v>73</v>
@@ -4647,27 +4647,27 @@
         <v>7</v>
       </c>
       <c r="F97" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J97" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K97" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B98" t="s">
         <v>73</v>
@@ -4682,27 +4682,27 @@
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I98" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J98" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K98" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
@@ -4717,27 +4717,27 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I99" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J99" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K99" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -4752,27 +4752,27 @@
         <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G100" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H100" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I100" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J100" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K100" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B101" t="s">
         <v>74</v>
@@ -4787,27 +4787,27 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G101" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H101" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I101" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J101" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K101" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s">
         <v>74</v>
@@ -4822,27 +4822,27 @@
         <v>7</v>
       </c>
       <c r="F102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G102" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H102" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="J102" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K102" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B103" t="s">
         <v>75</v>
@@ -4857,27 +4857,27 @@
         <v>7</v>
       </c>
       <c r="F103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G103" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H103" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I103" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J103" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K103" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B104" t="s">
         <v>76</v>
@@ -4892,27 +4892,27 @@
         <v>7</v>
       </c>
       <c r="F104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G104" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I104" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J104" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K104" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B105" t="s">
         <v>76</v>
@@ -4927,27 +4927,27 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G105" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I105" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J105" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K105" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B106" t="s">
         <v>76</v>
@@ -4962,27 +4962,27 @@
         <v>7</v>
       </c>
       <c r="F106" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G106" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I106" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J106" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K106" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B107" t="s">
         <v>76</v>
@@ -4997,27 +4997,27 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G107" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I107" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J107" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K107" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B108" t="s">
         <v>76</v>
@@ -5032,27 +5032,27 @@
         <v>7</v>
       </c>
       <c r="F108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G108" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I108" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J108" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K108" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B109" t="s">
         <v>76</v>
@@ -5067,27 +5067,27 @@
         <v>7</v>
       </c>
       <c r="F109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G109" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J109" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K109" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B110" t="s">
         <v>76</v>
@@ -5102,27 +5102,27 @@
         <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G110" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J110" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K110" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
         <v>76</v>
@@ -5137,27 +5137,27 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G111" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J111" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K111" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B112" t="s">
         <v>76</v>
@@ -5172,27 +5172,27 @@
         <v>7</v>
       </c>
       <c r="F112" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G112" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I112" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B113" t="s">
         <v>76</v>
@@ -5207,27 +5207,27 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H113" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I113" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J113" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K113" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B114" t="s">
         <v>76</v>
@@ -5242,27 +5242,27 @@
         <v>7</v>
       </c>
       <c r="F114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G114" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J114" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K114" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B115" t="s">
         <v>76</v>
@@ -5277,27 +5277,27 @@
         <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G115" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I115" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J115" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K115" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B116" t="s">
         <v>76</v>
@@ -5312,27 +5312,27 @@
         <v>7</v>
       </c>
       <c r="F116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G116" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H116" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I116" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J116" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K116" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B117" t="s">
         <v>76</v>
@@ -5347,27 +5347,27 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G117" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I117" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J117" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K117" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
         <v>76</v>
@@ -5382,27 +5382,27 @@
         <v>7</v>
       </c>
       <c r="F118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G118" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H118" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I118" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J118" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K118" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B119" t="s">
         <v>76</v>
@@ -5417,27 +5417,27 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G119" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H119" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I119" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J119" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K119" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B120" t="s">
         <v>76</v>
@@ -5452,27 +5452,27 @@
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G120" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H120" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I120" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J120" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K120" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B121" t="s">
         <v>76</v>
@@ -5487,27 +5487,27 @@
         <v>7</v>
       </c>
       <c r="F121" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G121" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H121" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I121" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J121" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K121" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B122" t="s">
         <v>76</v>
@@ -5522,27 +5522,27 @@
         <v>7</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G122" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H122" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I122" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="J122" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K122" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B123" t="s">
         <v>77</v>
@@ -5557,27 +5557,27 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G123" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H123" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I123" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J123" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B124" t="s">
         <v>77</v>
@@ -5592,27 +5592,27 @@
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G124" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H124" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I124" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J124" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K124" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B125" t="s">
         <v>78</v>
@@ -5627,27 +5627,27 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G125" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H125" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I125" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J125" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K125" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B126" t="s">
         <v>78</v>
@@ -5662,27 +5662,27 @@
         <v>7</v>
       </c>
       <c r="F126" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G126" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J126" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K126" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B127" t="s">
         <v>78</v>
@@ -5697,27 +5697,27 @@
         <v>7</v>
       </c>
       <c r="F127" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G127" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="I127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="J127" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K127" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B128" t="s">
         <v>79</v>
@@ -5732,27 +5732,27 @@
         <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G128" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H128" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="J128" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K128" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B129" t="s">
         <v>79</v>
@@ -5767,27 +5767,27 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G129" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H129" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I129" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J129" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K129" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B130" t="s">
         <v>79</v>
@@ -5802,22 +5802,22 @@
         <v>7</v>
       </c>
       <c r="F130" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G130" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H130" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I130" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="J130" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K130" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
